--- a/文案/數值系統GameValue_System.xlsx
+++ b/文案/數值系統GameValue_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42222B10-FF9B-49DC-81ED-E06EE1F6CEB0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C7C671-3E26-4666-B703-B30A48FCFBD2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W15" authorId="0" shapeId="0" xr:uid="{02DC50C4-9709-4907-9547-2A2113C2E793}">
+    <comment ref="X15" authorId="0" shapeId="0" xr:uid="{02DC50C4-9709-4907-9547-2A2113C2E793}">
       <text>
         <r>
           <rPr>
@@ -393,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE15" authorId="0" shapeId="0" xr:uid="{76320453-F412-4F40-8448-250A99DD968A}">
+    <comment ref="AF15" authorId="0" shapeId="0" xr:uid="{76320453-F412-4F40-8448-250A99DD968A}">
       <text>
         <r>
           <rPr>
@@ -429,7 +429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF15" authorId="0" shapeId="0" xr:uid="{50FDE8B8-5DBB-490C-B437-1BA5CC31820D}">
+    <comment ref="AG15" authorId="0" shapeId="0" xr:uid="{50FDE8B8-5DBB-490C-B437-1BA5CC31820D}">
       <text>
         <r>
           <rPr>
@@ -465,7 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG15" authorId="0" shapeId="0" xr:uid="{D8B4F0A6-00B0-4E6E-8A47-6D7595CF5CFF}">
+    <comment ref="AH15" authorId="0" shapeId="0" xr:uid="{D8B4F0A6-00B0-4E6E-8A47-6D7595CF5CFF}">
       <text>
         <r>
           <rPr>
@@ -1115,7 +1115,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1125,6 +1125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,8 +1264,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1284,6 +1308,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1296,51 +1329,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1367,6 +1360,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1623,15 +1664,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>185312</xdr:colOff>
+      <xdr:colOff>555107</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>45352</xdr:rowOff>
+      <xdr:rowOff>34146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>503448</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>268125</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>97491</xdr:rowOff>
+      <xdr:rowOff>86285</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1646,7 +1687,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15414106" y="2196881"/>
+          <a:off x="15783901" y="2185675"/>
           <a:ext cx="2133489" cy="1105492"/>
           <a:chOff x="5124636" y="1803292"/>
           <a:chExt cx="1974974" cy="985814"/>
@@ -3704,15 +3745,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>95810</xdr:colOff>
+      <xdr:colOff>499222</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
+      <xdr:rowOff>11207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>533961</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>332255</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>25214</xdr:rowOff>
+      <xdr:rowOff>14008</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3744,7 +3785,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15929722" y="3440207"/>
+          <a:off x="15728016" y="3429001"/>
           <a:ext cx="1043268" cy="1056154"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4020,11 +4061,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:AG39"/>
+  <dimension ref="B1:AH40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4032,372 +4073,1140 @@
     <col min="1" max="1" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:33" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C2" s="29" t="s">
+    <row r="1" spans="2:34" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="26"/>
     </row>
-    <row r="3" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="34"/>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="29"/>
     </row>
-    <row r="4" spans="3:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="37"/>
+    <row r="4" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="32"/>
     </row>
-    <row r="6" spans="3:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="G7" s="26" t="s">
+    <row r="6" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="W7" s="26" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="45"/>
+      <c r="X7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="2"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="8"/>
     </row>
-    <row r="8" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="5"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="5"/>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B8" s="46"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="47"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="11"/>
     </row>
-    <row r="9" spans="3:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="8"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="8"/>
+    <row r="9" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="46"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="47"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="14"/>
     </row>
-    <row r="13" spans="3:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R13" s="18" t="s">
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="37"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="37"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="39"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="33"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="39"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="38"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="39"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="39"/>
+    </row>
+    <row r="13" spans="2:34" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="38"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="S13" s="14"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="39"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="33"/>
+      <c r="AH13" s="39"/>
     </row>
-    <row r="14" spans="3:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K14" s="19" t="s">
+    <row r="14" spans="2:34" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="38"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" s="14"/>
-      <c r="T14" s="13" t="s">
+      <c r="Q14" s="49"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="U14" s="14"/>
-      <c r="X14" s="27"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="53"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="33"/>
+      <c r="AH14" s="39"/>
     </row>
-    <row r="15" spans="3:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="W15" s="19" t="s">
+    <row r="15" spans="2:34" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="38"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="39"/>
+      <c r="X15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="X15" s="28"/>
-      <c r="AE15" s="19" t="s">
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AF15" s="19" t="s">
+      <c r="AG15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AG15" s="19" t="s">
+      <c r="AH15" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="3:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="P16" s="9" t="s">
+    <row r="16" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="38"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Q16" s="10"/>
-      <c r="T16" s="9" t="s">
+      <c r="Q16" s="19"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="10"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="28"/>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="20"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="54"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="16"/>
     </row>
-    <row r="17" spans="7:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="12"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="12"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="28"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
+    <row r="17" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="38"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="54"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
     </row>
-    <row r="18" spans="7:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="27"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
+    <row r="18" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="38"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="39"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
     </row>
-    <row r="19" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="P19" s="9" t="s">
+    <row r="19" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="38"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="10"/>
-      <c r="T19" s="9" t="s">
+      <c r="Q19" s="19"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="U19" s="10"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="28"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="20"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="54"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
     </row>
-    <row r="20" spans="7:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="12"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="12"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="28"/>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="20"/>
+    <row r="20" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="38"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="54"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
     </row>
-    <row r="21" spans="7:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="28"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="20"/>
+    <row r="21" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="38"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="39"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="16"/>
     </row>
-    <row r="22" spans="7:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P22" s="9" t="s">
+    <row r="22" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="38"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="10"/>
-      <c r="T22" s="9" t="s">
+      <c r="Q22" s="19"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="U22" s="16" t="s">
+      <c r="U22" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="W22" s="21"/>
-      <c r="X22" s="28"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="21"/>
-      <c r="AG22" s="21"/>
+      <c r="V22" s="54"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
     </row>
-    <row r="23" spans="7:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P23" s="11"/>
-      <c r="Q23" s="12"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="17"/>
-      <c r="X23" s="27"/>
+    <row r="23" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="38"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="54"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="33"/>
+      <c r="AF23" s="33"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="39"/>
     </row>
-    <row r="24" spans="7:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="X24" s="27"/>
+    <row r="24" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="38"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="39"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="33"/>
+      <c r="AH24" s="39"/>
     </row>
-    <row r="25" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P25" s="9" t="s">
+    <row r="25" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="38"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Q25" s="10"/>
-      <c r="T25" s="9" t="s">
+      <c r="Q25" s="19"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="U25" s="10"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="54"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="33"/>
+      <c r="AG25" s="33"/>
+      <c r="AH25" s="39"/>
     </row>
-    <row r="26" spans="7:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P26" s="11"/>
-      <c r="Q26" s="12"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="12"/>
+    <row r="26" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="38"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="54"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="41"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="41"/>
+      <c r="AG26" s="41"/>
+      <c r="AH26" s="42"/>
     </row>
-    <row r="27" spans="7:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="7:33" x14ac:dyDescent="0.25">
-      <c r="P28" s="9" t="s">
+    <row r="27" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="38"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="39"/>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B28" s="38"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q28" s="10"/>
-      <c r="T28" s="9" t="s">
+      <c r="Q28" s="19"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="U28" s="10"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="54"/>
     </row>
-    <row r="29" spans="7:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P29" s="11"/>
-      <c r="Q29" s="12"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="12"/>
+    <row r="29" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="38"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="54"/>
     </row>
-    <row r="31" spans="7:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="7:33" x14ac:dyDescent="0.25">
-      <c r="G32" s="22" t="s">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B30" s="38"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="39"/>
+    </row>
+    <row r="31" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="38"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="39"/>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B32" s="38"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="23"/>
-      <c r="Z32" s="28"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="39"/>
+      <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="7:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G33" s="24"/>
-      <c r="H33" s="25"/>
-      <c r="Z33" s="28"/>
+    <row r="33" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="38"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="39"/>
+      <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="Z34" s="28"/>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B34" s="38"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="39"/>
+      <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="7:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Z35" s="28"/>
+    <row r="35" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="38"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="39"/>
+      <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="G36" s="22" t="s">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B36" s="38"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="23"/>
-      <c r="Z36" s="28"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="39"/>
+      <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="7:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G37" s="24"/>
-      <c r="H37" s="25"/>
-      <c r="Z37" s="28"/>
+    <row r="37" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="38"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="39"/>
+      <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="Z38" s="28"/>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B38" s="38"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="39"/>
+      <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="Z39" s="28"/>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B39" s="38"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="39"/>
+      <c r="AA39" s="1"/>
+    </row>
+    <row r="40" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="40"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:Q4"/>
+    <mergeCell ref="P16:Q17"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="P22:Q23"/>
+    <mergeCell ref="B7:V9"/>
+    <mergeCell ref="T16:U17"/>
+    <mergeCell ref="T19:U20"/>
+    <mergeCell ref="T25:U26"/>
+    <mergeCell ref="T28:U29"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
     <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G7:Q9"/>
-    <mergeCell ref="W7:AG9"/>
-    <mergeCell ref="AE15:AE22"/>
+    <mergeCell ref="X7:AH9"/>
     <mergeCell ref="AF15:AF22"/>
     <mergeCell ref="AG15:AG22"/>
-    <mergeCell ref="W15:W22"/>
+    <mergeCell ref="AH15:AH22"/>
+    <mergeCell ref="X15:X22"/>
     <mergeCell ref="R13:S13"/>
     <mergeCell ref="K14:K21"/>
     <mergeCell ref="L14:L21"/>
@@ -4407,16 +5216,6 @@
     <mergeCell ref="P28:Q29"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T16:U17"/>
-    <mergeCell ref="T19:U20"/>
-    <mergeCell ref="T25:U26"/>
-    <mergeCell ref="T28:U29"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="C2:Q4"/>
-    <mergeCell ref="P16:Q17"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="P22:Q23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文案/數值系統GameValue_System.xlsx
+++ b/文案/數值系統GameValue_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C7C671-3E26-4666-B703-B30A48FCFBD2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7860BB-A777-4841-A74A-8F1A0ECD9AEC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1269,6 +1269,93 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1279,9 +1366,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1317,78 +1401,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1397,18 +1409,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4065,7 +4065,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:Q4"/>
+      <selection pane="bottomLeft" activeCell="AD39" sqref="AD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4075,1121 +4075,1134 @@
   <sheetData>
     <row r="1" spans="2:34" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="29"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="32"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="6" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="45"/>
-      <c r="X7" s="6" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="29"/>
+      <c r="X7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="8"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="42"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="47"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="11"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="32"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="45"/>
     </row>
     <row r="9" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="46"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="47"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="14"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="32"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="48"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="37"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="37"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="6"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="6"/>
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="39"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="39"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="8"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="8"/>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="39"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="39"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="8"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="8"/>
     </row>
     <row r="13" spans="2:34" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="48" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="S13" s="49"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="39"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="39"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="8"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="8"/>
     </row>
     <row r="14" spans="2:34" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="38"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="15" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="50" t="s">
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="50" t="s">
+      <c r="Q14" s="53"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="U14" s="49"/>
-      <c r="V14" s="53"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="39"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="12"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="8"/>
     </row>
     <row r="15" spans="2:34" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="39"/>
-      <c r="X15" s="15" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="8"/>
+      <c r="X15" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="15" t="s">
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="AG15" s="15" t="s">
+      <c r="AG15" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="AH15" s="15" t="s">
+      <c r="AH15" s="49" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="18" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="18" t="s">
+      <c r="Q16" s="24"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="19"/>
-      <c r="V16" s="54"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="16"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="13"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="50"/>
     </row>
     <row r="17" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="38"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="54"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="13"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50"/>
     </row>
     <row r="18" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="38"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="39"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="8"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
     </row>
     <row r="19" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="38"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="18" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="18" t="s">
+      <c r="Q19" s="24"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="U19" s="19"/>
-      <c r="V19" s="54"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="16"/>
-      <c r="AH19" s="16"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="13"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="50"/>
     </row>
     <row r="20" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="38"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="54"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="16"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="13"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="50"/>
+      <c r="AH20" s="50"/>
     </row>
     <row r="21" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="38"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="39"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="16"/>
-      <c r="AH21" s="16"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="8"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
+      <c r="AH21" s="50"/>
     </row>
     <row r="22" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="38"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="18" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="51" t="s">
+      <c r="Q22" s="24"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="U22" s="22" t="s">
+      <c r="U22" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="V22" s="54"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
+      <c r="V22" s="13"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="51"/>
     </row>
     <row r="23" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="38"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="54"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="39"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="13"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="8"/>
     </row>
     <row r="24" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="38"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="39"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="33"/>
-      <c r="AH24" s="39"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="8"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="8"/>
     </row>
     <row r="25" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="38"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="18" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="18" t="s">
+      <c r="Q25" s="24"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="U25" s="19"/>
-      <c r="V25" s="54"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="33"/>
-      <c r="AH25" s="39"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="13"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="8"/>
     </row>
     <row r="26" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="38"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="54"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="41"/>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="41"/>
-      <c r="AE26" s="41"/>
-      <c r="AF26" s="41"/>
-      <c r="AG26" s="41"/>
-      <c r="AH26" s="42"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="13"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="11"/>
     </row>
     <row r="27" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="38"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="39"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="8"/>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B28" s="38"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="18" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="18" t="s">
+      <c r="Q28" s="24"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="U28" s="19"/>
-      <c r="V28" s="54"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="13"/>
     </row>
     <row r="29" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="38"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="54"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="13"/>
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B30" s="38"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="39"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="8"/>
     </row>
     <row r="31" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="38"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="39"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="8"/>
     </row>
     <row r="32" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B32" s="38"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="2" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="39"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="8"/>
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="38"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="39"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="8"/>
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B34" s="38"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="39"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="8"/>
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="38"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="39"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="8"/>
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B36" s="38"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="2" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="39"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="8"/>
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="38"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="39"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="8"/>
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B38" s="38"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="39"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="8"/>
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B39" s="38"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="39"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="8"/>
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="40"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="42"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="X7:AH9"/>
+    <mergeCell ref="AF15:AF22"/>
+    <mergeCell ref="AG15:AG22"/>
+    <mergeCell ref="AH15:AH22"/>
+    <mergeCell ref="X15:X22"/>
+    <mergeCell ref="T25:U26"/>
+    <mergeCell ref="T28:U29"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="P25:Q26"/>
+    <mergeCell ref="P28:Q29"/>
     <mergeCell ref="C2:Q4"/>
     <mergeCell ref="P16:Q17"/>
     <mergeCell ref="P19:Q20"/>
@@ -5197,23 +5210,10 @@
     <mergeCell ref="B7:V9"/>
     <mergeCell ref="T16:U17"/>
     <mergeCell ref="T19:U20"/>
-    <mergeCell ref="T25:U26"/>
-    <mergeCell ref="T28:U29"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="X7:AH9"/>
-    <mergeCell ref="AF15:AF22"/>
-    <mergeCell ref="AG15:AG22"/>
-    <mergeCell ref="AH15:AH22"/>
-    <mergeCell ref="X15:X22"/>
     <mergeCell ref="R13:S13"/>
     <mergeCell ref="K14:K21"/>
     <mergeCell ref="L14:L21"/>
     <mergeCell ref="M14:M21"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="P25:Q26"/>
-    <mergeCell ref="P28:Q29"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="T14:U14"/>
   </mergeCells>

--- a/文案/數值系統GameValue_System.xlsx
+++ b/文案/數值系統GameValue_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7860BB-A777-4841-A74A-8F1A0ECD9AEC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AC96C2-2B4B-4ECD-996F-B0A8776C72CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1287,85 +1287,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1400,6 +1322,84 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4065,7 +4065,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD39" sqref="AD39"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4075,164 +4075,164 @@
   <sheetData>
     <row r="1" spans="2:34" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="16"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="40"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="22"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="46"/>
     </row>
     <row r="6" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="29"/>
-      <c r="X7" s="27" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="48"/>
+      <c r="X7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="42"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="16"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="32"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="45"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="51"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="19"/>
     </row>
     <row r="9" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="32"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="47"/>
-      <c r="AH9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="51"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="22"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
@@ -4382,13 +4382,13 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="49" t="s">
+      <c r="K14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="49" t="s">
+      <c r="L14" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="49" t="s">
+      <c r="M14" s="23" t="s">
         <v>17</v>
       </c>
       <c r="N14" s="2"/>
@@ -4426,9 +4426,9 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -4438,7 +4438,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="8"/>
-      <c r="X15" s="49" t="s">
+      <c r="X15" s="23" t="s">
         <v>25</v>
       </c>
       <c r="Y15" s="3"/>
@@ -4448,13 +4448,13 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
-      <c r="AF15" s="49" t="s">
+      <c r="AF15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AG15" s="49" t="s">
+      <c r="AG15" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="AH15" s="49" t="s">
+      <c r="AH15" s="23" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4468,23 +4468,23 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="23" t="s">
+      <c r="P16" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="Q16" s="24"/>
+      <c r="Q16" s="27"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="23" t="s">
+      <c r="T16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="24"/>
+      <c r="U16" s="27"/>
       <c r="V16" s="13"/>
-      <c r="X16" s="50"/>
+      <c r="X16" s="24"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
@@ -4492,9 +4492,9 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="50"/>
-      <c r="AH16" s="50"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="24"/>
     </row>
     <row r="17" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
@@ -4506,19 +4506,19 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="26"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="29"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="26"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="29"/>
       <c r="V17" s="13"/>
-      <c r="X17" s="50"/>
+      <c r="X17" s="24"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -4526,9 +4526,9 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="50"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="24"/>
     </row>
     <row r="18" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
@@ -4540,9 +4540,9 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -4552,7 +4552,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="8"/>
-      <c r="X18" s="50"/>
+      <c r="X18" s="24"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -4560,9 +4560,9 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="50"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="24"/>
     </row>
     <row r="19" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
@@ -4574,23 +4574,23 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="23" t="s">
+      <c r="P19" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="24"/>
+      <c r="Q19" s="27"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="23" t="s">
+      <c r="T19" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="U19" s="24"/>
+      <c r="U19" s="27"/>
       <c r="V19" s="13"/>
-      <c r="X19" s="50"/>
+      <c r="X19" s="24"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
@@ -4598,9 +4598,9 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="50"/>
-      <c r="AG19" s="50"/>
-      <c r="AH19" s="50"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="24"/>
     </row>
     <row r="20" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
@@ -4612,19 +4612,19 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="26"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="29"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="26"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="29"/>
       <c r="V20" s="13"/>
-      <c r="X20" s="50"/>
+      <c r="X20" s="24"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
@@ -4632,9 +4632,9 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="50"/>
-      <c r="AH20" s="50"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="24"/>
+      <c r="AH20" s="24"/>
     </row>
     <row r="21" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
@@ -4646,9 +4646,9 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4658,7 +4658,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="8"/>
-      <c r="X21" s="50"/>
+      <c r="X21" s="24"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -4666,9 +4666,9 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50"/>
-      <c r="AH21" s="50"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="24"/>
+      <c r="AH21" s="24"/>
     </row>
     <row r="22" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
@@ -4685,20 +4685,20 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="23" t="s">
+      <c r="P22" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="24"/>
+      <c r="Q22" s="27"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="33" t="s">
+      <c r="T22" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="U22" s="35" t="s">
+      <c r="U22" s="32" t="s">
         <v>11</v>
       </c>
       <c r="V22" s="13"/>
-      <c r="X22" s="51"/>
+      <c r="X22" s="25"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
@@ -4706,9 +4706,9 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="51"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
     </row>
     <row r="23" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
@@ -4725,12 +4725,12 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="26"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="29"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="36"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="33"/>
       <c r="V23" s="13"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="2"/>
@@ -4793,16 +4793,16 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="23" t="s">
+      <c r="P25" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="Q25" s="24"/>
+      <c r="Q25" s="27"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="23" t="s">
+      <c r="T25" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="U25" s="24"/>
+      <c r="U25" s="27"/>
       <c r="V25" s="13"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="2"/>
@@ -4831,12 +4831,12 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="26"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="29"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="26"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="29"/>
       <c r="V26" s="13"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="10"/>
@@ -4888,16 +4888,16 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="23" t="s">
+      <c r="P28" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="Q28" s="24"/>
+      <c r="Q28" s="27"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="23" t="s">
+      <c r="T28" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U28" s="24"/>
+      <c r="U28" s="27"/>
       <c r="V28" s="13"/>
     </row>
     <row r="29" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4915,12 +4915,12 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="26"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="29"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="26"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="29"/>
       <c r="V29" s="13"/>
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.25">
@@ -4975,10 +4975,10 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="37" t="s">
+      <c r="G32" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="38"/>
+      <c r="H32" s="35"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -5001,8 +5001,8 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -5073,10 +5073,10 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="38"/>
+      <c r="H36" s="35"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -5099,8 +5099,8 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="40"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="37"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -5190,19 +5190,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="X7:AH9"/>
-    <mergeCell ref="AF15:AF22"/>
-    <mergeCell ref="AG15:AG22"/>
-    <mergeCell ref="AH15:AH22"/>
-    <mergeCell ref="X15:X22"/>
-    <mergeCell ref="T25:U26"/>
-    <mergeCell ref="T28:U29"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="P25:Q26"/>
-    <mergeCell ref="P28:Q29"/>
     <mergeCell ref="C2:Q4"/>
     <mergeCell ref="P16:Q17"/>
     <mergeCell ref="P19:Q20"/>
@@ -5216,6 +5203,19 @@
     <mergeCell ref="M14:M21"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T25:U26"/>
+    <mergeCell ref="T28:U29"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="P25:Q26"/>
+    <mergeCell ref="P28:Q29"/>
+    <mergeCell ref="X7:AH9"/>
+    <mergeCell ref="AF15:AF22"/>
+    <mergeCell ref="AG15:AG22"/>
+    <mergeCell ref="AH15:AH22"/>
+    <mergeCell ref="X15:X22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文案/數值系統GameValue_System.xlsx
+++ b/文案/數值系統GameValue_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AC96C2-2B4B-4ECD-996F-B0A8776C72CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2846BDC9-1F04-413D-B298-1861FAAE5F45}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,31 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{C2131357-94F1-4765-940D-297CCA065995}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>技能一開始全部開放可觀看全內容。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K14" authorId="0" shapeId="0" xr:uid="{DEC513C9-AD7F-4F9C-AD90-E899611D0BB2}">
       <text>
         <r>
@@ -389,7 +414,46 @@
             <family val="2"/>
             <charset val="136"/>
           </rPr>
-          <t>蒐集情報為本遊戲歷程主要目的之一，藉由蒐集到的情報來獲取角色數值成長的關鍵物，以及開啟不同的劇本歷程來達到正確結局的通關。</t>
+          <t>在探索遊戲地圖任何關卡，都能有機會蒐集到情報，蒐集情報為本遊戲歷程主要目的之一，藉由蒐集到的情報來獲取角色數值成長的關鍵（ex:技能點），而進入</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>記憶迴響關卡能獲取</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>較多的情報，以及開啟不同的劇本歷程來達到正確的結局。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z15" authorId="0" shapeId="0" xr:uid="{40380AAB-342C-4A30-9811-97EF9C6C43F5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>定義:
+1.進入記憶迴響關卡
+2.更換記憶世界線</t>
         </r>
       </text>
     </comment>
@@ -811,14 +875,18 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="11"/>
             <color indexed="81"/>
             <rFont val="微軟正黑體"/>
             <family val="2"/>
             <charset val="136"/>
           </rPr>
-          <t>起手永久素質因素加成物品。</t>
+          <t>起手永久因素加成物品。
+-------------------------------
+ex：最初的面具
+-------------------------------
+魔素+8pt
+-------------------------------</t>
         </r>
       </text>
     </comment>
@@ -844,7 +912,57 @@
             <family val="2"/>
             <charset val="136"/>
           </rPr>
-          <t>因素數值</t>
+          <t xml:space="preserve">因素數值
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>-----------------------</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>ex：軍用皮甲
+-----------------------</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">
+體力+5pt
+耐力+5pt
+反應+5pt
+-----------------------</t>
         </r>
       </text>
     </comment>
@@ -853,7 +971,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>本數值設定規則適用於遊戲所有角色及物件，不分敵我方。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -958,12 +1076,20 @@
     <t>蒐集情報</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>記憶跳躍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能系統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1110,6 +1236,21 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -1264,7 +1405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
@@ -1287,9 +1428,105 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1314,101 +1551,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1437,92 +1608,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228375</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
+      <xdr:colOff>383465</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>188035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304576</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>86958</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="矩形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D93EB744-5BE6-4224-8B81-94FA67B171C0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="329228" y="1394012"/>
-          <a:ext cx="3706907" cy="3645946"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>技能系統</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>405877</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>199241</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>537884</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>176381</xdr:rowOff>
+      <xdr:rowOff>165175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1537,8 +1631,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="506730" y="3336888"/>
-          <a:ext cx="1342242" cy="380552"/>
+          <a:off x="484318" y="4233359"/>
+          <a:ext cx="1454300" cy="402963"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1577,7 +1671,7 @@
               <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             </a:rPr>
-            <a:t>技能 </a:t>
+            <a:t>配置技能 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
@@ -1608,26 +1702,6 @@
               <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             </a:rPr>
             <a:t>B</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>C</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100" baseline="0">
@@ -1663,556 +1737,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>555107</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>34146</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>463587</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>194736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>268125</xdr:colOff>
+      <xdr:colOff>179908</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>86285</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="30" name="群組 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E29F69B-B7D3-4D2F-B449-5B08AC826EBD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="15783901" y="2185675"/>
-          <a:ext cx="2133489" cy="1105492"/>
-          <a:chOff x="5124636" y="1803292"/>
-          <a:chExt cx="1974974" cy="985814"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="流程圖: 磁碟 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB43799-CE7B-4691-874F-DCEEE86306F4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5662311" y="2366196"/>
-            <a:ext cx="857715" cy="422910"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartMagneticDisk">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              </a:rPr>
-              <a:t>記憶負荷</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="矩形 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CC8A00-64F6-4A5C-B429-8848AB456DCF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5371682" y="1944541"/>
-            <a:ext cx="452089" cy="165735"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000">
-                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              </a:rPr>
-              <a:t>情報</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="矩形 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811060A0-F3C3-4CC8-BC5B-4B14BD1D009E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6337145" y="1846132"/>
-            <a:ext cx="492977" cy="184785"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000">
-                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              </a:rPr>
-              <a:t>情報</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="矩形 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BE4984-A30A-40CB-BBA9-ED06DB25720D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6622895" y="2179507"/>
-            <a:ext cx="476715" cy="175260"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000">
-                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              </a:rPr>
-              <a:t>情報</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="15" name="直線單箭頭接點 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{209DE427-7E81-4ADE-9DC7-767BEC7F8688}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="4" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5599632" y="2106466"/>
-            <a:ext cx="374727" cy="312373"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="16" name="直線單箭頭接點 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EB90EAD-ECEE-4228-94F5-59F85D29EED4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="6257786" y="2030917"/>
-            <a:ext cx="267003" cy="387922"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="18" name="直線單箭頭接點 17">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A390C2D-1284-499C-BE21-5C68115B429A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="14" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6061477" y="1991887"/>
-            <a:ext cx="25881" cy="460081"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="21" name="直線單箭頭接點 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF304F75-78AC-4661-82CD-9A34A3906F45}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5427531" y="2370007"/>
-            <a:ext cx="393499" cy="82425"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="矩形 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A74DFBD4-C33D-436A-9711-1908768C7DDD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5124636" y="2255707"/>
-            <a:ext cx="445770" cy="186690"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000">
-                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              </a:rPr>
-              <a:t>情報</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="矩形 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B348C96-2048-4C1F-9F1F-63358ACF8B4F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5833713" y="1803292"/>
-            <a:ext cx="459338" cy="192405"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000">
-                <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-                <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              </a:rPr>
-              <a:t>情報</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="23" name="直線單箭頭接點 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98E7D20-CC21-4974-A61E-A5ADEA3265A5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="11" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="6394295" y="2261422"/>
-            <a:ext cx="228600" cy="169544"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>58493</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>188034</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>235323</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>168985</xdr:rowOff>
+      <xdr:rowOff>41458</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="矩形 31">
+        <xdr:cNvPr id="8" name="流程圖: 磁碟 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58D61852-3421-4FD6-9992-E663FD5B0A2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB43799-CE7B-4691-874F-DCEEE86306F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,16 +1761,20 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2579817" y="2518858"/>
-          <a:ext cx="781947" cy="384362"/>
+          <a:off x="16902616" y="2772089"/>
+          <a:ext cx="926557" cy="474251"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="19050"/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2253,87 +1798,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
               <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             </a:rPr>
-            <a:t>技能效果</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>405876</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>64771</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304463</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="矩形 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB64F677-A028-46E9-AA15-27974CA6BF28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2322082" y="1387065"/>
-          <a:ext cx="1713940" cy="618788"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>技能一開始就全部開放可觀看全內容。</a:t>
+            <a:t>記憶負荷</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2469,15 +1941,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>369795</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>56031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>78443</xdr:colOff>
+      <xdr:colOff>268942</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2492,8 +1964,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="470648" y="2353235"/>
-          <a:ext cx="918883" cy="504264"/>
+          <a:off x="291353" y="3059207"/>
+          <a:ext cx="1288677" cy="683558"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2520,10 +1992,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -2562,7 +2034,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2572,13 +2044,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>174811</xdr:colOff>
+      <xdr:colOff>186017</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>174812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>174811</xdr:colOff>
+      <xdr:colOff>186017</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>40342</xdr:rowOff>
     </xdr:to>
@@ -2595,8 +2067,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="880782" y="3715871"/>
-          <a:ext cx="0" cy="470647"/>
+          <a:off x="891988" y="4645959"/>
+          <a:ext cx="0" cy="493059"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2625,15 +2097,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>136712</xdr:colOff>
+      <xdr:colOff>134471</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:rowOff>70484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
+      <xdr:colOff>419322</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>136713</xdr:rowOff>
+      <xdr:rowOff>77657</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2644,12 +2116,15 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1447800" y="4471147"/>
-          <a:ext cx="1118347" cy="13448"/>
+          <a:off x="1445559" y="5393278"/>
+          <a:ext cx="1495087" cy="7173"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2678,15 +2153,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>266922</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>4258</xdr:rowOff>
+      <xdr:colOff>446216</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>138728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>443751</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17927</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>186914</xdr:rowOff>
+      <xdr:rowOff>119678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2701,8 +2176,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1578010" y="4150434"/>
-          <a:ext cx="781947" cy="384362"/>
+          <a:off x="1757304" y="5046904"/>
+          <a:ext cx="781947" cy="395568"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2742,187 +2217,6 @@
               <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             </a:rPr>
             <a:t>達成</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>544606</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>6725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線單箭頭接點 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4364F354-09EA-4E87-86C4-924DD50B41C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1855694" y="3541059"/>
-          <a:ext cx="710453" cy="6725"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>336179</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>178510</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>58493</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="接點: 肘形 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{449271FD-5A26-480D-9394-7235A7184B40}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="32" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="1995488" y="2967936"/>
-          <a:ext cx="841226" cy="327432"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352087</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>89422</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>528916</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>70372</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="矩形 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{168F0D28-BDD9-4A85-AE6C-AD7716CD24F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1663175" y="3227069"/>
-          <a:ext cx="781947" cy="384362"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>使用</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3011,313 +2305,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504265</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線單箭頭接點 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07EC8940-5B1D-418B-8C75-D5568255DDE5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3630706" y="3765176"/>
-          <a:ext cx="2532529" cy="11206"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>54011</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>71492</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>526677</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="矩形 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFA1EDBB-3760-4853-A453-3C6BA17421F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2575335" y="3209139"/>
-          <a:ext cx="1077783" cy="589655"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF9999"/>
-        </a:solidFill>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>暫時</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>素質因素加成</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>522194</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>115307</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="接點: 肘形 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE907179-0B93-4FDA-8971-E32110137BB9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3648635" y="3776382"/>
-          <a:ext cx="2514600" cy="810072"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>49528</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>22185</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>522194</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>6722</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="矩形 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E2ECA9-21AE-42AD-888B-C5B04CFF1DB1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2570852" y="4168361"/>
-          <a:ext cx="1077783" cy="589655"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>永久</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>素質因素加成</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>129990</xdr:rowOff>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>387724</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:rowOff>129990</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3331,9 +2328,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6734735" y="3760696"/>
-          <a:ext cx="1620371" cy="15686"/>
+        <a:xfrm>
+          <a:off x="6689912" y="4605618"/>
+          <a:ext cx="1665194" cy="6725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3478,15 +2475,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>440872</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>604158</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>59872</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3501,13 +2498,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5415643" y="4909457"/>
-          <a:ext cx="772886" cy="1066801"/>
+          <a:off x="5221941" y="4807324"/>
+          <a:ext cx="952500" cy="627530"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="57150">
+        <a:ln w="76200">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3531,15 +2528,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
+      <xdr:colOff>347382</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3554,8 +2551,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4403271" y="5972415"/>
-          <a:ext cx="1019735" cy="586228"/>
+          <a:off x="4347882" y="5367618"/>
+          <a:ext cx="941294" cy="1199031"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3585,15 +2582,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>22413</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>446315</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3608,8 +2605,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4387584" y="5970814"/>
-          <a:ext cx="1033502" cy="1365837"/>
+          <a:off x="4370294" y="5401235"/>
+          <a:ext cx="918882" cy="1994647"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3745,15 +2742,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>499222</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>11207</xdr:rowOff>
+      <xdr:colOff>50987</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>332255</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>14008</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>489138</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>103655</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3785,7 +2782,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15728016" y="3429001"/>
+          <a:off x="15884899" y="3316942"/>
           <a:ext cx="1043268" cy="1056154"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3793,6 +2790,669 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線單箭頭接點 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD33F6E-54D7-4CEB-AC88-782D2FCB85A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15912353" y="2969559"/>
+          <a:ext cx="840441" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>105557</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>44600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>282387</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矩形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B82E85A2-D639-47B4-B513-244F1C700992}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15939469" y="2621953"/>
+          <a:ext cx="781947" cy="406773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>增加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>195205</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>372034</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>103989</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="矩形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D79EF44-A92B-4D23-B74D-54AAB33AF756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="296058" y="3742540"/>
+          <a:ext cx="781947" cy="406773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>花費</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457424</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>183328</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線單箭頭接點 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7ED526F-1CD8-46FA-B714-E932525AFCD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="51" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1938617" y="4448738"/>
+          <a:ext cx="435013" cy="4031"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457424</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>194758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>96371</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171898</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="矩形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3197B6BF-4592-4FB6-93D6-4D88909C4281}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2373630" y="4240082"/>
+          <a:ext cx="1454300" cy="402963"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>解除技能 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>……</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>579456</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>194758</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線單箭頭接點 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E06816A-2469-47A8-B0B0-DB78C53D00F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1647265" y="3462618"/>
+          <a:ext cx="1453515" cy="788669"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>291577</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>468406</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>144330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="矩形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2FE1629-7A65-4A9E-8D5E-A82C337A3068}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2207783" y="3581175"/>
+          <a:ext cx="781947" cy="406773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>回朔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>70484</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線單箭頭接點 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1207EEB-C7E0-488F-95B6-586A032B5765}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4146176" y="5390029"/>
+          <a:ext cx="1131795" cy="3249"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419322</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>179068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E2ECA9-21AE-42AD-888B-C5B04CFF1DB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2940646" y="5087244"/>
+          <a:ext cx="1205530" cy="612067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>永久</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>素質因素加成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4065,7 +3725,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4075,164 +3735,164 @@
   <sheetData>
     <row r="1" spans="2:34" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="40"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="43"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="46"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="6" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="48"/>
-      <c r="X7" s="14" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="29"/>
+      <c r="X7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="16"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="48"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="51"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="19"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="32"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="51"/>
     </row>
     <row r="9" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="51"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="22"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="32"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="54"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
@@ -4302,7 +3962,7 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="8"/>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4337,13 +3997,15 @@
       <c r="AH12" s="8"/>
     </row>
     <row r="13" spans="2:34" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="B13" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -4353,10 +4015,10 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="52" t="s">
+      <c r="R13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="S13" s="53"/>
+      <c r="S13" s="34"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="8"/>
@@ -4373,36 +4035,36 @@
       <c r="AH13" s="8"/>
     </row>
     <row r="14" spans="2:34" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="35" t="s">
         <v>17</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="54" t="s">
+      <c r="P14" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" s="53"/>
+      <c r="Q14" s="34"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="54" t="s">
+      <c r="T14" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="U14" s="53"/>
+      <c r="U14" s="34"/>
       <c r="V14" s="12"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="2"/>
@@ -4423,12 +4085,12 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -4438,63 +4100,65 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="8"/>
-      <c r="X15" s="23" t="s">
+      <c r="X15" s="35" t="s">
         <v>25</v>
       </c>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
+      <c r="Z15" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA15" s="56"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
-      <c r="AF15" s="23" t="s">
+      <c r="AF15" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AG15" s="23" t="s">
+      <c r="AG15" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="AH15" s="23" t="s">
+      <c r="AH15" s="35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="26" t="s">
+      <c r="P16" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="Q16" s="27"/>
+      <c r="Q16" s="24"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="26" t="s">
+      <c r="T16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="27"/>
+      <c r="U16" s="24"/>
       <c r="V16" s="13"/>
-      <c r="X16" s="24"/>
+      <c r="X16" s="36"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="58"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="24"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
     </row>
     <row r="17" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
@@ -4503,22 +4167,22 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="29"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="26"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="29"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="26"/>
       <c r="V17" s="13"/>
-      <c r="X17" s="24"/>
+      <c r="X17" s="36"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -4526,9 +4190,9 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
     </row>
     <row r="18" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
@@ -4537,12 +4201,12 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -4552,7 +4216,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="8"/>
-      <c r="X18" s="24"/>
+      <c r="X18" s="36"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -4560,9 +4224,9 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
     </row>
     <row r="19" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
@@ -4571,26 +4235,26 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="26" t="s">
+      <c r="P19" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="27"/>
+      <c r="Q19" s="24"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="26" t="s">
+      <c r="T19" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="U19" s="27"/>
+      <c r="U19" s="24"/>
       <c r="V19" s="13"/>
-      <c r="X19" s="24"/>
+      <c r="X19" s="36"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
@@ -4598,9 +4262,9 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
     </row>
     <row r="20" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
@@ -4609,22 +4273,22 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="29"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="26"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="29"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="26"/>
       <c r="V20" s="13"/>
-      <c r="X20" s="24"/>
+      <c r="X20" s="36"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
@@ -4632,9 +4296,9 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="24"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
     </row>
     <row r="21" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
@@ -4643,12 +4307,12 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4658,7 +4322,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="8"/>
-      <c r="X21" s="24"/>
+      <c r="X21" s="36"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -4666,9 +4330,9 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="24"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
     </row>
     <row r="22" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
@@ -4677,7 +4341,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -4685,20 +4349,20 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="26" t="s">
+      <c r="P22" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="27"/>
+      <c r="Q22" s="24"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="30" t="s">
+      <c r="T22" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="U22" s="32" t="s">
+      <c r="U22" s="41" t="s">
         <v>11</v>
       </c>
       <c r="V22" s="13"/>
-      <c r="X22" s="25"/>
+      <c r="X22" s="37"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
@@ -4706,9 +4370,9 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="37"/>
     </row>
     <row r="23" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
@@ -4717,7 +4381,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -4725,12 +4389,12 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="29"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="26"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="33"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="42"/>
       <c r="V23" s="13"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="2"/>
@@ -4751,7 +4415,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -4785,7 +4449,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -4793,16 +4457,16 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="26" t="s">
+      <c r="P25" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Q25" s="27"/>
+      <c r="Q25" s="24"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="26" t="s">
+      <c r="T25" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="U25" s="27"/>
+      <c r="U25" s="24"/>
       <c r="V25" s="13"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="2"/>
@@ -4823,7 +4487,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -4831,12 +4495,12 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="29"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="26"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="29"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="26"/>
       <c r="V26" s="13"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="10"/>
@@ -4857,7 +4521,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -4880,7 +4544,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -4888,26 +4552,26 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="26" t="s">
+      <c r="P28" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="Q28" s="27"/>
+      <c r="Q28" s="24"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="26" t="s">
+      <c r="T28" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="U28" s="27"/>
+      <c r="U28" s="24"/>
       <c r="V28" s="13"/>
     </row>
     <row r="29" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -4915,12 +4579,12 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="29"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="26"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="29"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="26"/>
       <c r="V29" s="13"/>
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.25">
@@ -4975,10 +4639,10 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="34" t="s">
+      <c r="G32" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="35"/>
+      <c r="H32" s="44"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -5001,8 +4665,8 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -5073,10 +4737,10 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="34" t="s">
+      <c r="G36" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="35"/>
+      <c r="H36" s="44"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -5099,8 +4763,8 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="46"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -5189,7 +4853,21 @@
       <c r="V40" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
+    <mergeCell ref="X7:AH9"/>
+    <mergeCell ref="AF15:AF22"/>
+    <mergeCell ref="AG15:AG22"/>
+    <mergeCell ref="AH15:AH22"/>
+    <mergeCell ref="X15:X22"/>
+    <mergeCell ref="Z15:AA16"/>
+    <mergeCell ref="T25:U26"/>
+    <mergeCell ref="T28:U29"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="P25:Q26"/>
+    <mergeCell ref="P28:Q29"/>
     <mergeCell ref="C2:Q4"/>
     <mergeCell ref="P16:Q17"/>
     <mergeCell ref="P19:Q20"/>
@@ -5203,19 +4881,7 @@
     <mergeCell ref="M14:M21"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T25:U26"/>
-    <mergeCell ref="T28:U29"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="P25:Q26"/>
-    <mergeCell ref="P28:Q29"/>
-    <mergeCell ref="X7:AH9"/>
-    <mergeCell ref="AF15:AF22"/>
-    <mergeCell ref="AG15:AG22"/>
-    <mergeCell ref="AH15:AH22"/>
-    <mergeCell ref="X15:X22"/>
+    <mergeCell ref="B13:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文案/數值系統GameValue_System.xlsx
+++ b/文案/數值系統GameValue_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2846BDC9-1F04-413D-B298-1861FAAE5F45}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3C3E6C-82E3-44B4-9BCE-A7BAAD3FBE6D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1428,6 +1428,90 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1455,21 +1539,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1491,77 +1560,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2306,15 +2306,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>537883</xdr:colOff>
+      <xdr:colOff>582706</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>387724</xdr:colOff>
+      <xdr:colOff>504265</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>129990</xdr:rowOff>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2329,8 +2329,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6689912" y="4605618"/>
-          <a:ext cx="1665194" cy="6725"/>
+          <a:off x="6734735" y="4605618"/>
+          <a:ext cx="1736912" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2409,11 +2409,21 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>內隱記憶</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3725,7 +3735,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N36" sqref="N36"/>
+      <selection pane="bottomLeft" activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3735,164 +3745,164 @@
   <sheetData>
     <row r="1" spans="2:34" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="16"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="44"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="22"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="50"/>
     </row>
     <row r="6" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="29"/>
-      <c r="X7" s="27" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="52"/>
+      <c r="X7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="48"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="16"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="32"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="51"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="55"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="19"/>
     </row>
     <row r="9" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="32"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="53"/>
-      <c r="AE9" s="53"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="54"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="55"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="22"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
@@ -4015,10 +4025,10 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="33" t="s">
+      <c r="R13" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="S13" s="34"/>
+      <c r="S13" s="57"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="8"/>
@@ -4044,27 +4054,27 @@
       <c r="H14" s="8"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="35" t="s">
+      <c r="L14" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="35" t="s">
+      <c r="M14" s="23" t="s">
         <v>17</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="38" t="s">
+      <c r="P14" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" s="34"/>
+      <c r="Q14" s="57"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="38" t="s">
+      <c r="T14" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="U14" s="34"/>
+      <c r="U14" s="57"/>
       <c r="V14" s="12"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="2"/>
@@ -4088,9 +4098,9 @@
       <c r="H15" s="8"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -4100,25 +4110,25 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="8"/>
-      <c r="X15" s="35" t="s">
+      <c r="X15" s="23" t="s">
         <v>25</v>
       </c>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="55" t="s">
+      <c r="Z15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="AA15" s="56"/>
+      <c r="AA15" s="27"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
-      <c r="AF15" s="35" t="s">
+      <c r="AF15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AG15" s="35" t="s">
+      <c r="AG15" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="AH15" s="35" t="s">
+      <c r="AH15" s="23" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4132,33 +4142,33 @@
       <c r="H16" s="8"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="23" t="s">
+      <c r="P16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="Q16" s="24"/>
+      <c r="Q16" s="31"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="23" t="s">
+      <c r="T16" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="24"/>
+      <c r="U16" s="31"/>
       <c r="V16" s="13"/>
-      <c r="X16" s="36"/>
+      <c r="X16" s="24"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="58"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="29"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="24"/>
     </row>
     <row r="17" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
@@ -4170,19 +4180,19 @@
       <c r="H17" s="8"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="26"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="33"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="26"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="33"/>
       <c r="V17" s="13"/>
-      <c r="X17" s="36"/>
+      <c r="X17" s="24"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -4190,9 +4200,9 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="24"/>
     </row>
     <row r="18" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
@@ -4204,9 +4214,9 @@
       <c r="H18" s="8"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -4216,7 +4226,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="8"/>
-      <c r="X18" s="36"/>
+      <c r="X18" s="24"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -4224,9 +4234,9 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="24"/>
     </row>
     <row r="19" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
@@ -4238,23 +4248,23 @@
       <c r="H19" s="8"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="23" t="s">
+      <c r="P19" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="24"/>
+      <c r="Q19" s="31"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="23" t="s">
+      <c r="T19" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="U19" s="24"/>
+      <c r="U19" s="31"/>
       <c r="V19" s="13"/>
-      <c r="X19" s="36"/>
+      <c r="X19" s="24"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
@@ -4262,9 +4272,9 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="24"/>
     </row>
     <row r="20" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
@@ -4276,19 +4286,19 @@
       <c r="H20" s="8"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="26"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="33"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="26"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="33"/>
       <c r="V20" s="13"/>
-      <c r="X20" s="36"/>
+      <c r="X20" s="24"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
@@ -4296,9 +4306,9 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="36"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="24"/>
+      <c r="AH20" s="24"/>
     </row>
     <row r="21" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
@@ -4310,9 +4320,9 @@
       <c r="H21" s="8"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4322,7 +4332,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="8"/>
-      <c r="X21" s="36"/>
+      <c r="X21" s="24"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -4330,9 +4340,9 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="36"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="24"/>
+      <c r="AH21" s="24"/>
     </row>
     <row r="22" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
@@ -4349,20 +4359,20 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="23" t="s">
+      <c r="P22" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="24"/>
+      <c r="Q22" s="31"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="39" t="s">
+      <c r="T22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="U22" s="41" t="s">
+      <c r="U22" s="36" t="s">
         <v>11</v>
       </c>
       <c r="V22" s="13"/>
-      <c r="X22" s="37"/>
+      <c r="X22" s="25"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
@@ -4370,9 +4380,9 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
-      <c r="AF22" s="37"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="37"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
     </row>
     <row r="23" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
@@ -4389,12 +4399,12 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="26"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="33"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="42"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="37"/>
       <c r="V23" s="13"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="2"/>
@@ -4457,16 +4467,16 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="23" t="s">
+      <c r="P25" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="Q25" s="24"/>
+      <c r="Q25" s="31"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="23" t="s">
+      <c r="T25" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="U25" s="24"/>
+      <c r="U25" s="31"/>
       <c r="V25" s="13"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="2"/>
@@ -4495,12 +4505,12 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="26"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="33"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="26"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="33"/>
       <c r="V26" s="13"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="10"/>
@@ -4552,16 +4562,16 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="23" t="s">
+      <c r="P28" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Q28" s="24"/>
+      <c r="Q28" s="31"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="23" t="s">
+      <c r="T28" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="U28" s="24"/>
+      <c r="U28" s="31"/>
       <c r="V28" s="13"/>
     </row>
     <row r="29" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4579,12 +4589,12 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="26"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="33"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="26"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="33"/>
       <c r="V29" s="13"/>
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.25">
@@ -4639,10 +4649,10 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="43" t="s">
+      <c r="G32" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="44"/>
+      <c r="H32" s="39"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -4665,8 +4675,8 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="46"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="41"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -4737,10 +4747,10 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="43" t="s">
+      <c r="G36" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="44"/>
+      <c r="H36" s="39"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -4763,8 +4773,8 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="46"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="41"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -4854,20 +4864,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="X7:AH9"/>
-    <mergeCell ref="AF15:AF22"/>
-    <mergeCell ref="AG15:AG22"/>
-    <mergeCell ref="AH15:AH22"/>
-    <mergeCell ref="X15:X22"/>
-    <mergeCell ref="Z15:AA16"/>
-    <mergeCell ref="T25:U26"/>
-    <mergeCell ref="T28:U29"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="P25:Q26"/>
-    <mergeCell ref="P28:Q29"/>
     <mergeCell ref="C2:Q4"/>
     <mergeCell ref="P16:Q17"/>
     <mergeCell ref="P19:Q20"/>
@@ -4882,6 +4878,20 @@
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="T14:U14"/>
     <mergeCell ref="B13:D14"/>
+    <mergeCell ref="T25:U26"/>
+    <mergeCell ref="T28:U29"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="P25:Q26"/>
+    <mergeCell ref="P28:Q29"/>
+    <mergeCell ref="X7:AH9"/>
+    <mergeCell ref="AF15:AF22"/>
+    <mergeCell ref="AG15:AG22"/>
+    <mergeCell ref="AH15:AH22"/>
+    <mergeCell ref="X15:X22"/>
+    <mergeCell ref="Z15:AA16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文案/數值系統GameValue_System.xlsx
+++ b/文案/數值系統GameValue_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3C3E6C-82E3-44B4-9BCE-A7BAAD3FBE6D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0FBE03-B017-4E00-AEEA-E6323E9AF214}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,10 +62,10 @@
           </rPr>
           <t>1.系統簡介
 玩家角色的戰鬥數值將由素質系統決定，系統內最主要以各項因素做為依據對角色數值進行增減，還能對技能產生額外效果。
-各項因素以點數作為計算，最大為50(裝備素質 + 技能熟練獎勵)，可以透過裝備、技能熟練、深層記憶來增/減點數。
+各項因素以點數作為計算，最大為50(裝備素質 + 技能熟練獎勵)，可以透過裝備、技能熟練、內隱記憶來增/減點數。
 2.數據算法
 因素點數 = 裝備素質 + 技能熟練獎勵
-實際數值 = 基本值 + 深層記憶加成 * 因素點數
+實際數值 = 基本值 + 內隱記憶加成 * 因素點數
 3.因素點數
 範例:
 --------------------
@@ -1428,9 +1428,123 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1455,15 +1569,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1474,111 +1579,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3735,7 +3735,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U37" sqref="U37"/>
+      <selection pane="bottomLeft" activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3745,164 +3745,164 @@
   <sheetData>
     <row r="1" spans="2:34" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="44"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="47"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="50"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="6" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="52"/>
-      <c r="X7" s="14" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="29"/>
+      <c r="X7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="16"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="54"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="55"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="19"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="32"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="57"/>
     </row>
     <row r="9" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="55"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="22"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="32"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="60"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
@@ -4007,11 +4007,11 @@
       <c r="AH12" s="8"/>
     </row>
     <row r="13" spans="2:34" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -4025,10 +4025,10 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="56" t="s">
+      <c r="R13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="S13" s="57"/>
+      <c r="S13" s="34"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="8"/>
@@ -4045,36 +4045,36 @@
       <c r="AH13" s="8"/>
     </row>
     <row r="14" spans="2:34" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="8"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="35" t="s">
         <v>17</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="58" t="s">
+      <c r="P14" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" s="57"/>
+      <c r="Q14" s="34"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="58" t="s">
+      <c r="T14" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="U14" s="57"/>
+      <c r="U14" s="34"/>
       <c r="V14" s="12"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="2"/>
@@ -4098,9 +4098,9 @@
       <c r="H15" s="8"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -4110,25 +4110,25 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="8"/>
-      <c r="X15" s="23" t="s">
+      <c r="X15" s="35" t="s">
         <v>25</v>
       </c>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="26" t="s">
+      <c r="Z15" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="AA15" s="27"/>
+      <c r="AA15" s="62"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
-      <c r="AF15" s="23" t="s">
+      <c r="AF15" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AG15" s="23" t="s">
+      <c r="AG15" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="AH15" s="23" t="s">
+      <c r="AH15" s="35" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4142,33 +4142,33 @@
       <c r="H16" s="8"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="30" t="s">
+      <c r="P16" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="Q16" s="31"/>
+      <c r="Q16" s="24"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="30" t="s">
+      <c r="T16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="31"/>
+      <c r="U16" s="24"/>
       <c r="V16" s="13"/>
-      <c r="X16" s="24"/>
+      <c r="X16" s="36"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="29"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="64"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="24"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
     </row>
     <row r="17" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
@@ -4180,19 +4180,19 @@
       <c r="H17" s="8"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="33"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="26"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="33"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="26"/>
       <c r="V17" s="13"/>
-      <c r="X17" s="24"/>
+      <c r="X17" s="36"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -4200,9 +4200,9 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
     </row>
     <row r="18" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
@@ -4214,9 +4214,9 @@
       <c r="H18" s="8"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -4226,7 +4226,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="8"/>
-      <c r="X18" s="24"/>
+      <c r="X18" s="36"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -4234,9 +4234,9 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
     </row>
     <row r="19" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
@@ -4248,23 +4248,23 @@
       <c r="H19" s="8"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="30" t="s">
+      <c r="P19" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="31"/>
+      <c r="Q19" s="24"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="30" t="s">
+      <c r="T19" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="U19" s="31"/>
+      <c r="U19" s="24"/>
       <c r="V19" s="13"/>
-      <c r="X19" s="24"/>
+      <c r="X19" s="36"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
@@ -4272,9 +4272,9 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
     </row>
     <row r="20" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
@@ -4286,19 +4286,19 @@
       <c r="H20" s="8"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="33"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="26"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="33"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="26"/>
       <c r="V20" s="13"/>
-      <c r="X20" s="24"/>
+      <c r="X20" s="36"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
@@ -4306,9 +4306,9 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="24"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
     </row>
     <row r="21" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
@@ -4320,9 +4320,9 @@
       <c r="H21" s="8"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4332,7 +4332,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="8"/>
-      <c r="X21" s="24"/>
+      <c r="X21" s="36"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -4340,9 +4340,9 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="24"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
     </row>
     <row r="22" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
@@ -4359,20 +4359,20 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="30" t="s">
+      <c r="P22" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="31"/>
+      <c r="Q22" s="24"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="34" t="s">
+      <c r="T22" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="U22" s="36" t="s">
+      <c r="U22" s="47" t="s">
         <v>11</v>
       </c>
       <c r="V22" s="13"/>
-      <c r="X22" s="25"/>
+      <c r="X22" s="37"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
@@ -4380,9 +4380,9 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="37"/>
     </row>
     <row r="23" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
@@ -4399,12 +4399,12 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="33"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="26"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="37"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="48"/>
       <c r="V23" s="13"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="2"/>
@@ -4467,16 +4467,16 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="30" t="s">
+      <c r="P25" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Q25" s="31"/>
+      <c r="Q25" s="24"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="30" t="s">
+      <c r="T25" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="U25" s="31"/>
+      <c r="U25" s="24"/>
       <c r="V25" s="13"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="2"/>
@@ -4505,12 +4505,12 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="33"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="26"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="33"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="26"/>
       <c r="V26" s="13"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="10"/>
@@ -4562,16 +4562,16 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="30" t="s">
+      <c r="P28" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="Q28" s="31"/>
+      <c r="Q28" s="24"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="30" t="s">
+      <c r="T28" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="U28" s="31"/>
+      <c r="U28" s="24"/>
       <c r="V28" s="13"/>
     </row>
     <row r="29" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4589,12 +4589,12 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="33"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="26"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="33"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="26"/>
       <c r="V29" s="13"/>
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.25">
@@ -4649,10 +4649,10 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="38" t="s">
+      <c r="G32" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="39"/>
+      <c r="H32" s="50"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -4675,8 +4675,8 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="52"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -4747,10 +4747,10 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="39"/>
+      <c r="H36" s="50"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -4773,8 +4773,8 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="41"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="52"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -4864,6 +4864,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="X7:AH9"/>
+    <mergeCell ref="AF15:AF22"/>
+    <mergeCell ref="AG15:AG22"/>
+    <mergeCell ref="AH15:AH22"/>
+    <mergeCell ref="X15:X22"/>
+    <mergeCell ref="Z15:AA16"/>
+    <mergeCell ref="T25:U26"/>
+    <mergeCell ref="T28:U29"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="P25:Q26"/>
+    <mergeCell ref="P28:Q29"/>
     <mergeCell ref="C2:Q4"/>
     <mergeCell ref="P16:Q17"/>
     <mergeCell ref="P19:Q20"/>
@@ -4878,20 +4892,6 @@
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="T14:U14"/>
     <mergeCell ref="B13:D14"/>
-    <mergeCell ref="T25:U26"/>
-    <mergeCell ref="T28:U29"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="P25:Q26"/>
-    <mergeCell ref="P28:Q29"/>
-    <mergeCell ref="X7:AH9"/>
-    <mergeCell ref="AF15:AF22"/>
-    <mergeCell ref="AG15:AG22"/>
-    <mergeCell ref="AH15:AH22"/>
-    <mergeCell ref="X15:X22"/>
-    <mergeCell ref="Z15:AA16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文案/數值系統GameValue_System.xlsx
+++ b/文案/數值系統GameValue_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0FBE03-B017-4E00-AEEA-E6323E9AF214}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B02A095A-737D-4B04-8500-0105092562F6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,31 +25,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{C2131357-94F1-4765-940D-297CCA065995}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>技能一開始全部開放可觀看全內容。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="K14" authorId="0" shapeId="0" xr:uid="{DEC513C9-AD7F-4F9C-AD90-E899611D0BB2}">
       <text>
         <r>
@@ -65,7 +40,7 @@
 各項因素以點數作為計算，最大為50(裝備素質 + 技能熟練獎勵)，可以透過裝備、技能熟練、內隱記憶來增/減點數。
 2.數據算法
 因素點數 = 裝備素質 + 技能熟練獎勵
-實際數值 = 基本值 + 內隱記憶加成 * 因素點數
+實際數值 = 基本值 + 深層(內隱)記憶加成 * 因素點數
 3.因素點數
 範例:
 --------------------
@@ -158,7 +133,7 @@
             <family val="2"/>
             <charset val="136"/>
           </rPr>
-          <t xml:space="preserve">--------------------
+          <t xml:space="preserve">-----------------------------------------------------------
 </t>
         </r>
         <r>
@@ -170,8 +145,8 @@
             <family val="2"/>
             <charset val="136"/>
           </rPr>
-          <t>EX:高級板型胸甲
---------------------</t>
+          <t xml:space="preserve">EX:高級板型胸甲
+</t>
         </r>
         <r>
           <rPr>
@@ -185,7 +160,7 @@
 體力 + 20pt
 耐力 - 10pt
 反應 - 10pt
---------------------
+-----------------------------------------------------------
 </t>
         </r>
         <r>
@@ -254,8 +229,7 @@
             <family val="2"/>
             <charset val="136"/>
           </rPr>
-          <t>EX:魔素劍 : 壓制劍術
-----------------------------------------------------</t>
+          <t>EX:魔素劍 : 壓制劍術</t>
         </r>
         <r>
           <rPr>
@@ -268,7 +242,6 @@
           <t xml:space="preserve">
 向前方快速刺擊，並透過魔素產生更長的攻擊範圍
 造成 80% 魔素刺擊傷害
-----------------------------------------------------
 </t>
         </r>
         <r>
@@ -280,9 +253,9 @@
             <family val="2"/>
             <charset val="136"/>
           </rPr>
-          <t>[魔素因素10 : 傷害 + 10%]
+          <t xml:space="preserve">[魔素因素10 : 傷害 + 10%]
 [魔素因素20 : 傷害 + 10%]
---------------------------------------------------------------</t>
+</t>
         </r>
         <r>
           <rPr>
@@ -293,7 +266,7 @@
             <charset val="136"/>
           </rPr>
           <t xml:space="preserve">
-使用壓制劍術攻擊弱點部位50次 : 反應 + 1
+熟練項目 : 壓制劍術攻擊弱點部位50次/反應 + 1
 ----------------------------------------------------</t>
         </r>
       </text>
@@ -414,7 +387,8 @@
             <family val="2"/>
             <charset val="136"/>
           </rPr>
-          <t>在探索遊戲地圖任何關卡，都能有機會蒐集到情報，蒐集情報為本遊戲歷程主要目的之一，藉由蒐集到的情報來獲取角色數值成長的關鍵（ex:技能點），而進入</t>
+          <t>在探索遊戲地圖任何關卡，都能有機會蒐集到情報，蒐集情報為本遊戲歷程主要目的之一。
+藉由蒐集到的情報來獲取角色數值成長的關鍵（ex:技能點），而進入</t>
         </r>
         <r>
           <rPr>
@@ -453,7 +427,7 @@
           </rPr>
           <t>定義:
 1.進入記憶迴響關卡
-2.更換記憶世界線</t>
+2.更換記憶世界線(記憶之海)</t>
         </r>
       </text>
     </comment>
@@ -696,6 +670,158 @@
         </r>
       </text>
     </comment>
+    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{6985CE70-BD55-466C-B4B8-EDEAC94A1F73}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>技能系統中每個技能都有獨自的熟練方式，當玩家有選定該技能後便能開始計算熟練值，熟練滿後即可獲得</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>永久加成的因素點數</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">。
+----------------------------------------------------
+EX:魔素劍 : 壓制劍術
+向前方快速刺擊，並透過魔素產生更長的攻擊範圍
+造成 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>80%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve"> 魔素刺擊傷害
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">[魔素因素10 : 傷害 + </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>10%</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">]
+[魔素因素20 : 傷害 + </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>10%</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>熟練項目 : 壓制劍術攻擊弱點部位50次/反應 + 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">
+----------------------------------------------------</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="P19" authorId="0" shapeId="0" xr:uid="{0E214BA4-5303-45DD-BCCE-E850C0339CFE}">
       <text>
         <r>
@@ -786,6 +912,90 @@
         </r>
       </text>
     </comment>
+    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{31C29FE4-A4C3-46DA-8B52-D48647BE8491}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>深層記憶</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>主要影響因素轉換成戰鬥數值的成長幅度，且有等級機制存在，每個等級可以解鎖一個特色被動，相當於RPG中的職業天賦。
+每輪遊戲開始時(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>記憶之海</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>)可選擇一個深層記憶，在結局前都無法更換，結局後會結算該輪的經驗值，若在結局前選擇更換世界線</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>(記憶之海</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">)也會結算經驗值，但會有所折抵。
+-------------------------------------------------------------------
+EX:戰場的過往
+戰場中體力和耐力將會是生存關鍵，防具會是保護你的最佳夥伴。
+[能力成長]
+體力pt + 15 HP
+耐力pt + 1.5 ST
+魔素pt + 0.3 MP、1 MS
+力量pt + 1 ATK
+反應pt + 0.4 Crit
+[被動技能]
+LV1 戰鬥呼吸 : 耐力回復速率 + 3/s
+LV2 重甲適應 : 裝備重甲型防具時傷害減免 10 %
+LV3 戰鬥激發 : 血量少於20% 時攻擊力上升25%
+LV4 重甲精通 : 裝備重甲型防具時抵擋能力增加
+LV5 生存意志 : 當受到會致死的傷害時，生命會維持在1持續5秒。
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="P25" authorId="0" shapeId="0" xr:uid="{2DA110CB-A91E-467B-84EF-136124E5276C}">
       <text>
         <r>
@@ -871,98 +1081,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="G32" authorId="0" shapeId="0" xr:uid="{EB764BD2-59B1-4CBE-A089-B00BFBBF53DA}">
+    <comment ref="G31" authorId="0" shapeId="0" xr:uid="{DFB24DFA-8015-4F36-8CD7-9304C7323957}">
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>起手永久因素加成物品。
--------------------------------
-ex：最初的面具
--------------------------------
-魔素+8pt
--------------------------------</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G36" authorId="0" shapeId="0" xr:uid="{A92D626D-4BF4-4427-99C4-36179A63B44E}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>可直接影響</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <u/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t xml:space="preserve">因素數值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>-----------------------</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <u/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>ex：軍用皮甲
------------------------</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t xml:space="preserve">
-體力+5pt
-耐力+5pt
-反應+5pt
------------------------</t>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>裝備能最直接增加大量因素，需透過探索中獲得的素材進行製作/升級。
+-------------------------------------------------
+Ex.軍用防護胸甲
+體力 + 5pt
+攻擊力 + 2pt</t>
         </r>
       </text>
     </comment>
@@ -1041,18 +1174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>內隱記憶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裝備</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>戰鬥/ACT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1081,7 +1202,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能系統</t>
+    <t>技能熟練獎勵
+(永久加成)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝備
+(休息據點替換)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深層(內隱)記憶
+(每輪初始選擇)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深層記憶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,7 +1225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1131,13 +1267,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="81"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -1249,6 +1378,8 @@
       <charset val="136"/>
     </font>
     <font>
+      <b/>
+      <i/>
       <sz val="10"/>
       <color indexed="81"/>
       <name val="微軟正黑體"/>
@@ -1405,13 +1536,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1428,31 +1559,52 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1467,119 +1619,89 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1605,136 +1727,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>383465</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>188035</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>165175</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="矩形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465FB0D8-C022-40F5-A7D1-A721896B043E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="484318" y="4233359"/>
-          <a:ext cx="1454300" cy="402963"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>配置技能 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>A</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>B</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>……</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
@@ -1806,417 +1798,6 @@
               <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             </a:rPr>
             <a:t>記憶負荷</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>394672</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>87182</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>68132</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="矩形 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5298D69D-ACA7-4D01-A908-AAEDE893D983}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="495525" y="4233358"/>
-          <a:ext cx="950034" cy="384362"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>熟練條件</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線單箭頭接點 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B71CAC6-C7E2-45D8-9F40-09688BF7FBA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="907676" y="2857500"/>
-          <a:ext cx="0" cy="470647"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>56031</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>268942</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="橢圓 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E69C8DBF-5FA1-4229-B2EA-6250CBCE1A7C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="291353" y="3059207"/>
-          <a:ext cx="1288677" cy="683558"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>技能點</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="zh-TW" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>186017</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>174812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>186017</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>40342</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直線單箭頭接點 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9C409A-1A48-498C-B802-A161CF9291E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="891988" y="4645959"/>
-          <a:ext cx="0" cy="493059"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>70484</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419322</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>77657</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線單箭頭接點 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0627E6-EE6D-4FA9-9B14-14F487142D4A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="22" idx="3"/>
-          <a:endCxn id="26" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1445559" y="5393278"/>
-          <a:ext cx="1495087" cy="7173"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>446216</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>138728</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>17927</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>119678</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="矩形 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6822CFE-7F9B-42AB-A3A6-3EA0BDCB2D98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1757304" y="5046904"/>
-          <a:ext cx="781947" cy="395568"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>達成</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2484,16 +2065,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>280147</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:rowOff>201706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>112060</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2508,8 +2089,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5221941" y="4807324"/>
-          <a:ext cx="952500" cy="627530"/>
+          <a:off x="4336676" y="4885765"/>
+          <a:ext cx="1837765" cy="11206"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2539,14 +2120,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2561,67 +2142,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4347882" y="5367618"/>
-          <a:ext cx="941294" cy="1199031"/>
+          <a:off x="4347882" y="4896972"/>
+          <a:ext cx="795618" cy="1479175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="57150">
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="124" name="直線單箭頭接點 123">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423069E3-2DAC-4711-ADCB-3390BBC5FC94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4370294" y="5401235"/>
-          <a:ext cx="918882" cy="1994647"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="57150">
+        <a:ln w="76200">
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
@@ -2646,22 +2173,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>145678</xdr:rowOff>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>309284</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>29137</xdr:rowOff>
+      <xdr:colOff>544606</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>73957</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="113" name="圖形 112" descr="戒指">
+        <xdr:cNvPr id="109" name="圖形 108" descr="西裝">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B08D2EF-4B73-4DE5-84A1-5ADA878D8E9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4522232-AE39-49EB-95D5-43D063CFCE54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,60 +2213,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1916208" y="6084796"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>11207</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>320489</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>197223</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="圖形 108" descr="西裝">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4522232-AE39-49EB-95D5-43D063CFCE54}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1927413" y="6880411"/>
+          <a:off x="2151530" y="5916704"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2930,402 +2404,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>195205</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>111834</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>372034</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>103989</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="矩形 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D79EF44-A92B-4D23-B74D-54AAB33AF756}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="296058" y="3742540"/>
-          <a:ext cx="781947" cy="406773"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>花費</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>179297</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457424</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>183328</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="直線單箭頭接點 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7ED526F-1CD8-46FA-B714-E932525AFCD7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="51" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1938617" y="4448738"/>
-          <a:ext cx="435013" cy="4031"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457424</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>194758</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>96371</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171898</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="矩形 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3197B6BF-4592-4FB6-93D6-4D88909C4281}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2373630" y="4240082"/>
-          <a:ext cx="1454300" cy="402963"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>解除技能 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>A</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>B</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>……</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>336177</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>579456</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>194758</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線單箭頭接點 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E06816A-2469-47A8-B0B0-DB78C53D00F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="51" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1647265" y="3462618"/>
-          <a:ext cx="1453515" cy="788669"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>291577</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>468406</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>144330</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="矩形 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2FE1629-7A65-4A9E-8D5E-A82C337A3068}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2207783" y="3581175"/>
-          <a:ext cx="781947" cy="406773"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>回朔</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>414617</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>336177</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>70484</xdr:rowOff>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3336,19 +2424,17 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="3"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4146176" y="5390029"/>
-          <a:ext cx="1131795" cy="3249"/>
+        <a:xfrm>
+          <a:off x="4347882" y="3384176"/>
+          <a:ext cx="829236" cy="1512795"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="57150">
+        <a:ln w="76200">
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
@@ -3370,99 +2456,110 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419322</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>179068</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>414617</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>163605</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>567018</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="矩形 25">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖形 2" descr="頭顱中有齒輪">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E2ECA9-21AE-42AD-888B-C5B04CFF1DB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C8053D8-D053-49D7-AD43-8F0DA05794D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2940646" y="5087244"/>
-          <a:ext cx="1205530" cy="612067"/>
+          <a:off x="2173942" y="4437529"/>
+          <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="19050"/>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>永久</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>素質因素加成</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>212910</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>522192</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="圖形 5" descr="挖掘工具">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{697495FC-4636-499D-86AF-2EEE2EBFBD6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2129116" y="2913530"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3731,11 +2828,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AH40"/>
+  <dimension ref="A1:AH40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R38" sqref="R38"/>
+      <selection pane="bottomLeft" activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3743,168 +2840,168 @@
     <col min="1" max="1" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C2" s="14" t="s">
+    <row r="1" spans="1:34" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="16"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="44"/>
     </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="47"/>
     </row>
-    <row r="4" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="22"/>
+    <row r="4" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="50"/>
     </row>
-    <row r="6" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
-        <v>20</v>
+    <row r="6" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>17</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="29"/>
-      <c r="X7" s="27" t="s">
-        <v>21</v>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="52"/>
+      <c r="X7" s="14" t="s">
+        <v>18</v>
       </c>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="54"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="16"/>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="32"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="57"/>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="55"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="19"/>
     </row>
-    <row r="9" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="32"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="59"/>
-      <c r="AH9" s="60"/>
+    <row r="9" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="55"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="22"/>
     </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3938,14 +3035,14 @@
       <c r="AG10" s="5"/>
       <c r="AH10" s="6"/>
     </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -3972,14 +3069,14 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="8"/>
     </row>
-    <row r="12" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -4006,16 +3103,15 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="8"/>
     </row>
-    <row r="13" spans="2:34" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
+    <row r="13" spans="1:34" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="59"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -4025,10 +3121,10 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="33" t="s">
+      <c r="R13" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="S13" s="34"/>
+      <c r="S13" s="57"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="8"/>
@@ -4044,37 +3140,38 @@
       <c r="AG13" s="2"/>
       <c r="AH13" s="8"/>
     </row>
-    <row r="14" spans="2:34" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="8"/>
+    <row r="14" spans="1:34" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="35" t="s">
+      <c r="L14" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="35" t="s">
-        <v>17</v>
+      <c r="M14" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="38" t="s">
+      <c r="P14" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" s="34"/>
+      <c r="Q14" s="57"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="38" t="s">
+      <c r="T14" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="U14" s="34"/>
+      <c r="U14" s="57"/>
       <c r="V14" s="12"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="2"/>
@@ -4088,19 +3185,20 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="8"/>
     </row>
-    <row r="15" spans="2:34" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="8"/>
+    <row r="15" spans="1:34" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="59"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -4110,89 +3208,93 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="8"/>
-      <c r="X15" s="35" t="s">
-        <v>25</v>
+      <c r="X15" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="61" t="s">
-        <v>26</v>
+      <c r="Z15" s="26" t="s">
+        <v>23</v>
       </c>
-      <c r="AA15" s="62"/>
+      <c r="AA15" s="27"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
-      <c r="AF15" s="35" t="s">
-        <v>22</v>
+      <c r="AF15" s="23" t="s">
+        <v>19</v>
       </c>
-      <c r="AG15" s="35" t="s">
-        <v>23</v>
+      <c r="AG15" s="23" t="s">
+        <v>20</v>
       </c>
-      <c r="AH15" s="35" t="s">
-        <v>24</v>
+      <c r="AH15" s="23" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="8"/>
+    <row r="16" spans="1:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="59"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="23" t="s">
+      <c r="P16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="Q16" s="24"/>
+      <c r="Q16" s="31"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="23" t="s">
+      <c r="T16" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="24"/>
+      <c r="U16" s="31"/>
       <c r="V16" s="13"/>
-      <c r="X16" s="36"/>
+      <c r="X16" s="24"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="64"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="29"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="24"/>
     </row>
-    <row r="17" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="8"/>
+    <row r="17" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="39"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="26"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="33"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="26"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="33"/>
       <c r="V17" s="13"/>
-      <c r="X17" s="36"/>
+      <c r="X17" s="24"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -4200,23 +3302,24 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="24"/>
     </row>
-    <row r="18" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="8"/>
+    <row r="18" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -4226,7 +3329,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="8"/>
-      <c r="X18" s="36"/>
+      <c r="X18" s="24"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -4234,37 +3337,38 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="24"/>
     </row>
-    <row r="19" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="8"/>
+    <row r="19" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="23" t="s">
+      <c r="P19" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="24"/>
+      <c r="Q19" s="31"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="23" t="s">
+      <c r="T19" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="U19" s="24"/>
+      <c r="U19" s="31"/>
       <c r="V19" s="13"/>
-      <c r="X19" s="36"/>
+      <c r="X19" s="24"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
@@ -4272,33 +3376,34 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="24"/>
     </row>
-    <row r="20" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="8"/>
+    <row r="20" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="26"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="33"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="26"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="33"/>
       <c r="V20" s="13"/>
-      <c r="X20" s="36"/>
+      <c r="X20" s="24"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
@@ -4306,23 +3411,24 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="36"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="24"/>
+      <c r="AH20" s="24"/>
     </row>
-    <row r="21" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="8"/>
+    <row r="21" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="59"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4332,7 +3438,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="8"/>
-      <c r="X21" s="36"/>
+      <c r="X21" s="24"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -4340,18 +3446,19 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="36"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="24"/>
+      <c r="AH21" s="24"/>
     </row>
-    <row r="22" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="8"/>
+    <row r="22" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="59"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -4359,20 +3466,20 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="23" t="s">
+      <c r="P22" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="24"/>
+      <c r="Q22" s="31"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="45" t="s">
+      <c r="T22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="U22" s="47" t="s">
+      <c r="U22" s="36" t="s">
         <v>11</v>
       </c>
       <c r="V22" s="13"/>
-      <c r="X22" s="37"/>
+      <c r="X22" s="25"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
@@ -4380,18 +3487,19 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
-      <c r="AF22" s="37"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="37"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
     </row>
-    <row r="23" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="8"/>
+    <row r="23" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="59"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -4399,12 +3507,12 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="26"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="33"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="48"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="37"/>
       <c r="V23" s="13"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="2"/>
@@ -4418,14 +3526,17 @@
       <c r="AG23" s="2"/>
       <c r="AH23" s="8"/>
     </row>
-    <row r="24" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="8"/>
+    <row r="24" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="59"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="39"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -4452,14 +3563,15 @@
       <c r="AG24" s="2"/>
       <c r="AH24" s="8"/>
     </row>
-    <row r="25" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="8"/>
+    <row r="25" spans="1:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -4467,16 +3579,16 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="23" t="s">
+      <c r="P25" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="Q25" s="24"/>
+      <c r="Q25" s="31"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="23" t="s">
+      <c r="T25" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="U25" s="24"/>
+      <c r="U25" s="31"/>
       <c r="V25" s="13"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="2"/>
@@ -4490,14 +3602,15 @@
       <c r="AG25" s="2"/>
       <c r="AH25" s="8"/>
     </row>
-    <row r="26" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="8"/>
+    <row r="26" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="59"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -4505,12 +3618,12 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="26"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="33"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="26"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="33"/>
       <c r="V26" s="13"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="10"/>
@@ -4524,14 +3637,15 @@
       <c r="AG26" s="10"/>
       <c r="AH26" s="11"/>
     </row>
-    <row r="27" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="7"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="8"/>
+    <row r="27" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="59"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -4547,14 +3661,15 @@
       <c r="U27" s="2"/>
       <c r="V27" s="8"/>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="8"/>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -4562,26 +3677,27 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="23" t="s">
+      <c r="P28" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Q28" s="24"/>
+      <c r="Q28" s="31"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="23" t="s">
+      <c r="T28" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="U28" s="24"/>
+      <c r="U28" s="31"/>
       <c r="V28" s="13"/>
     </row>
-    <row r="29" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
+    <row r="29" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="59"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -4589,22 +3705,22 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="26"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="33"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="26"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="33"/>
       <c r="V29" s="13"/>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+    <row r="30" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -4620,14 +3736,16 @@
       <c r="U30" s="2"/>
       <c r="V30" s="8"/>
     </row>
-    <row r="31" spans="2:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="G31" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="39"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -4643,16 +3761,14 @@
       <c r="U31" s="2"/>
       <c r="V31" s="8"/>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="50"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="41"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -4669,14 +3785,14 @@
       <c r="V32" s="8"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="52"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -4717,7 +3833,7 @@
       <c r="V34" s="8"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -4747,10 +3863,8 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="50"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="63"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -4767,14 +3881,14 @@
       <c r="V36" s="8"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="52"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -4864,20 +3978,7 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="X7:AH9"/>
-    <mergeCell ref="AF15:AF22"/>
-    <mergeCell ref="AG15:AG22"/>
-    <mergeCell ref="AH15:AH22"/>
-    <mergeCell ref="X15:X22"/>
-    <mergeCell ref="Z15:AA16"/>
-    <mergeCell ref="T25:U26"/>
-    <mergeCell ref="T28:U29"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="P25:Q26"/>
-    <mergeCell ref="P28:Q29"/>
+    <mergeCell ref="G17:H18"/>
     <mergeCell ref="C2:Q4"/>
     <mergeCell ref="P16:Q17"/>
     <mergeCell ref="P19:Q20"/>
@@ -4891,7 +3992,20 @@
     <mergeCell ref="M14:M21"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="T14:U14"/>
-    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="G24:H25"/>
+    <mergeCell ref="T25:U26"/>
+    <mergeCell ref="T28:U29"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="P25:Q26"/>
+    <mergeCell ref="P28:Q29"/>
+    <mergeCell ref="G31:H32"/>
+    <mergeCell ref="X7:AH9"/>
+    <mergeCell ref="AF15:AF22"/>
+    <mergeCell ref="AG15:AG22"/>
+    <mergeCell ref="AH15:AH22"/>
+    <mergeCell ref="X15:X22"/>
+    <mergeCell ref="Z15:AA16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文案/數值系統GameValue_System.xlsx
+++ b/文案/數值系統GameValue_System.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7249965C-A1BB-4927-8276-2D407C469B40}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CE8149-2F05-44EF-80C0-2C9C3EF0D681}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,79 +476,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="P19" authorId="0" shapeId="0" xr:uid="{1B27737D-30F3-4349-B505-4E615AEA1360}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>影響最大HP的因素，防禦技能依賴的屬性。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T19" authorId="0" shapeId="0" xr:uid="{B4F8E912-A15D-470B-96E3-C457DAD00E4D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <i/>
-            <u/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>敵人共通</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>，角色生命依據，歸0時即死亡</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P22" authorId="0" shapeId="0" xr:uid="{0E214BA4-5303-45DD-BCCE-E850C0339CFE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>影響最大ST的因素，連擊技能依賴的屬性。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T22" authorId="0" shapeId="0" xr:uid="{0A6DE106-2953-4CD6-B3F7-0CA19CAD9704}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>玩家每種動作都需消耗的值，非動作狀態下會自然回復，消耗殆盡時短暫時間將會無法行動(硬直)。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E25" authorId="0" shapeId="0" xr:uid="{31C29FE4-A4C3-46DA-8B52-D48647BE8491}">
       <text>
         <r>
@@ -700,19 +627,7 @@
             <charset val="136"/>
           </rPr>
           <t xml:space="preserve">
-「那一次，要是沒有它……」
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>＜被動加成＞</t>
+「那一次，要是沒有它……」</t>
         </r>
         <r>
           <rPr>
@@ -723,14 +638,6 @@
             <charset val="136"/>
           </rPr>
           <t xml:space="preserve">
-戰場的過往：
-戰場中體力和耐力將會是生存關鍵，防具會是保護你的最佳夥伴。
-[能力成長]
-體力pt + 15 HP
-耐力pt + 1.5 ST
-魔素pt + 0.3 MP、1 MS
-力量pt + 1 ATK
-反應pt + 0.4 Crit
 </t>
         </r>
         <r>
@@ -793,7 +700,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="U25" authorId="0" shapeId="0" xr:uid="{69CE9B1D-2511-4F8B-86BB-794D342FF26A}">
+    <comment ref="P28" authorId="0" shapeId="0" xr:uid="{2DA110CB-A91E-467B-84EF-136124E5276C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="微軟正黑體"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>影響ATK的因素，攻擊技能依賴的屬性。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T28" authorId="0" shapeId="0" xr:uid="{B99A8AE8-DE00-4270-BEC0-A2E140604DA3}">
       <text>
         <r>
           <rPr>
@@ -817,51 +739,6 @@
             <family val="2"/>
             <charset val="136"/>
           </rPr>
-          <t>，能減少承受傷害的護盾，存在時受到攻擊也不會產生硬直，回復規則玩家和敵人不同：
-＊玩家 : 一定時間沒受到傷害時會自然回復。
-＊敵人 : 使用特殊動作(技能)時回復至全滿(Ex.吼叫)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P28" authorId="0" shapeId="0" xr:uid="{2DA110CB-A91E-467B-84EF-136124E5276C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>影響ATK的因素，攻擊技能依賴的屬性。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T28" authorId="0" shapeId="0" xr:uid="{B99A8AE8-DE00-4270-BEC0-A2E140604DA3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <i/>
-            <u/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>敵人共通</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
           <t>，決定攻擊傷害的基底值，所有傷害計算都以此為基底。</t>
         </r>
       </text>
@@ -905,47 +782,6 @@
             <charset val="136"/>
           </rPr>
           <t>並非所有動作都會造成爆擊</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{DFB24DFA-8015-4F36-8CD7-9304C7323957}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t xml:space="preserve">裝備能最直接增加大量因素，需透過探索中獲得的素材進行製作/升級。
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>(裝備單項素質最高加成預計為+30)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t xml:space="preserve">
--------------------------------------------------
-EX:高級板型胸甲
-體力 + 20pt
-耐力 - 10pt
-反應 - 10pt</t>
         </r>
       </text>
     </comment>
@@ -954,21 +790,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>本數值設定規則適用於遊戲所有角色及物件，不分敵我方。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>體力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反應</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -976,31 +800,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因素(屬性)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素質(能力)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命力/HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐力/ST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魔素/MP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>護盾/MS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1009,10 +809,6 @@
   </si>
   <si>
     <t>爆擊率/Crit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影響</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1049,17 +845,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>裝備
-(休息據點替換)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>內隱記憶
 (每輪初始選擇)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>戰鬥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殘酷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1361,7 +1160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1390,6 +1189,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1402,6 +1202,87 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1429,12 +1310,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1453,93 +1328,23 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1592,7 +1397,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3160059" y="3843618"/>
-          <a:ext cx="1871382" cy="1232647"/>
+          <a:ext cx="1871382" cy="1221441"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1779,15 +1584,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>100852</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>201705</xdr:rowOff>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>470646</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:colOff>504264</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1802,8 +1607,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9883587" y="3406587"/>
-          <a:ext cx="974912" cy="3395383"/>
+          <a:off x="9917205" y="3059206"/>
+          <a:ext cx="974912" cy="3361765"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -1833,13 +1638,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            </a:rPr>
-            <a:t>內隱記憶</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
             <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
             <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
@@ -1860,7 +1658,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>247092</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>96932</xdr:rowOff>
+      <xdr:rowOff>108138</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1953,113 +1751,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>112058</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="121" name="直線單箭頭接點 120">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F7EE560-8643-4FA7-9A91-DF2E2FE7CCA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3148853" y="5076265"/>
-          <a:ext cx="1904999" cy="1467970"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200">
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>11204</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>354107</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>85163</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="圖形 108" descr="西裝">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4522232-AE39-49EB-95D5-43D063CFCE54}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="750795" y="5950322"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2252,7 +1943,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>376519</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>73959</xdr:rowOff>
+      <xdr:rowOff>85165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2268,13 +1959,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2321,13 +2012,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2675,9 +2366,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE38" sqref="AE38"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2687,164 +2378,164 @@
   <sheetData>
     <row r="1" spans="1:34" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="24"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="52"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="27"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="55"/>
     </row>
     <row r="4" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="30"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="58"/>
     </row>
     <row r="6" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
-        <v>25</v>
+      <c r="B7" s="23" t="s">
+        <v>14</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="34"/>
-      <c r="X7" s="32" t="s">
-        <v>16</v>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="60"/>
+      <c r="X7" s="23" t="s">
+        <v>6</v>
       </c>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="48"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="25"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="37"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="51"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="63"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="28"/>
     </row>
     <row r="9" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="37"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="53"/>
-      <c r="AE9" s="53"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="54"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="63"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="31"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
@@ -2966,8 +2657,8 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="7"/>
@@ -2994,19 +2685,19 @@
       <c r="H14" s="15"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="63" t="s">
-        <v>15</v>
+      <c r="K14" s="18"/>
+      <c r="L14" s="65" t="s">
+        <v>5</v>
       </c>
-      <c r="M14" s="59"/>
+      <c r="M14" s="18"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
       <c r="V14" s="11"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="1"/>
@@ -3031,9 +2722,9 @@
       <c r="H15" s="15"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="59"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="18"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -3043,26 +2734,26 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="7"/>
-      <c r="X15" s="39" t="s">
-        <v>20</v>
+      <c r="X15" s="32" t="s">
+        <v>10</v>
       </c>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="55" t="s">
-        <v>21</v>
+      <c r="Z15" s="35" t="s">
+        <v>11</v>
       </c>
-      <c r="AA15" s="56"/>
+      <c r="AA15" s="36"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
-      <c r="AF15" s="39" t="s">
-        <v>17</v>
+      <c r="AF15" s="32" t="s">
+        <v>7</v>
       </c>
-      <c r="AG15" s="39" t="s">
-        <v>18</v>
+      <c r="AG15" s="32" t="s">
+        <v>8</v>
       </c>
-      <c r="AH15" s="39" t="s">
-        <v>19</v>
+      <c r="AH15" s="32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3076,60 +2767,54 @@
       <c r="H16" s="15"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="59"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="18"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="S16" s="38"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
       <c r="V16" s="12"/>
-      <c r="X16" s="40"/>
+      <c r="X16" s="33"/>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="58"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="38"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="40"/>
-      <c r="AH16" s="40"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="33"/>
     </row>
     <row r="17" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="59"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="18"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q17" s="42"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="U17" s="42"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
       <c r="V17" s="12"/>
-      <c r="X17" s="40"/>
+      <c r="X17" s="33"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
@@ -3137,24 +2822,24 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="40"/>
-      <c r="AH17" s="40"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="33"/>
     </row>
     <row r="18" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="59"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="18"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -3164,7 +2849,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="7"/>
-      <c r="X18" s="40"/>
+      <c r="X18" s="33"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
@@ -3172,40 +2857,36 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
-      <c r="AF18" s="40"/>
-      <c r="AG18" s="40"/>
-      <c r="AH18" s="40"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="33"/>
+      <c r="AH18" s="33"/>
     </row>
     <row r="19" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="18" t="s">
-        <v>22</v>
+      <c r="E19" s="19" t="s">
+        <v>12</v>
       </c>
-      <c r="F19" s="66"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="59"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="18"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="60"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="60"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
       <c r="V19" s="12"/>
-      <c r="X19" s="40"/>
+      <c r="X19" s="33"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
@@ -3213,34 +2894,34 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
-      <c r="AF19" s="40"/>
-      <c r="AG19" s="40"/>
-      <c r="AH19" s="40"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="33"/>
     </row>
     <row r="20" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="59"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="18"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="62"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="62"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
       <c r="V20" s="12"/>
-      <c r="X20" s="40"/>
+      <c r="X20" s="33"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
@@ -3248,9 +2929,9 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
-      <c r="AF20" s="40"/>
-      <c r="AG20" s="40"/>
-      <c r="AH20" s="40"/>
+      <c r="AF20" s="33"/>
+      <c r="AG20" s="33"/>
+      <c r="AH20" s="33"/>
     </row>
     <row r="21" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
@@ -3263,9 +2944,9 @@
       <c r="H21" s="15"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="59"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="18"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3275,7 +2956,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="7"/>
-      <c r="X21" s="40"/>
+      <c r="X21" s="33"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
@@ -3283,9 +2964,9 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
-      <c r="AF21" s="40"/>
-      <c r="AG21" s="40"/>
-      <c r="AH21" s="40"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="33"/>
     </row>
     <row r="22" spans="1:34" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
@@ -3303,18 +2984,14 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="60"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="U22" s="60"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
       <c r="V22" s="12"/>
-      <c r="X22" s="41"/>
+      <c r="X22" s="34"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
@@ -3322,11 +2999,11 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="41"/>
-    </row>
-    <row r="23" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="34"/>
+      <c r="AH22" s="34"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
@@ -3342,12 +3019,12 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="62"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="62"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="69"/>
       <c r="V23" s="12"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="1"/>
@@ -3366,10 +3043,10 @@
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3401,12 +3078,12 @@
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="18" t="s">
-        <v>24</v>
+      <c r="E25" s="19" t="s">
+        <v>13</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -3414,18 +3091,16 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="31" t="s">
-        <v>4</v>
+      <c r="P25" s="39" t="s">
+        <v>15</v>
       </c>
-      <c r="Q25" s="60"/>
+      <c r="Q25" s="40"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="43" t="s">
-        <v>10</v>
+      <c r="T25" s="45" t="s">
+        <v>2</v>
       </c>
-      <c r="U25" s="45" t="s">
-        <v>11</v>
-      </c>
+      <c r="U25" s="43"/>
       <c r="V25" s="12"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="1"/>
@@ -3444,8 +3119,8 @@
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="1"/>
@@ -3455,12 +3130,12 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="62"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="42"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="44"/>
       <c r="V26" s="12"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="9"/>
@@ -3479,8 +3154,8 @@
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="1"/>
@@ -3514,16 +3189,16 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="31" t="s">
-        <v>5</v>
+      <c r="P28" s="39" t="s">
+        <v>16</v>
       </c>
-      <c r="Q28" s="60"/>
+      <c r="Q28" s="40"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="31" t="s">
-        <v>12</v>
+      <c r="T28" s="39" t="s">
+        <v>3</v>
       </c>
-      <c r="U28" s="60"/>
+      <c r="U28" s="40"/>
       <c r="V28" s="12"/>
     </row>
     <row r="29" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3542,12 +3217,12 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="62"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="42"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-      <c r="T29" s="61"/>
-      <c r="U29" s="62"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="42"/>
       <c r="V29" s="12"/>
     </row>
     <row r="30" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3558,8 +3233,8 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -3573,43 +3248,41 @@
       <c r="U30" s="1"/>
       <c r="V30" s="7"/>
     </row>
-    <row r="31" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="31" t="s">
-        <v>2</v>
+      <c r="P31" s="39" t="s">
+        <v>1</v>
       </c>
-      <c r="Q31" s="60"/>
+      <c r="Q31" s="40"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="31" t="s">
-        <v>13</v>
+      <c r="T31" s="39" t="s">
+        <v>4</v>
       </c>
-      <c r="U31" s="60"/>
+      <c r="U31" s="40"/>
       <c r="V31" s="7"/>
     </row>
     <row r="32" spans="1:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -3617,20 +3290,20 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="62"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="42"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="61"/>
-      <c r="U32" s="62"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="42"/>
       <c r="V32" s="7"/>
     </row>
-    <row r="33" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="1"/>
@@ -3652,8 +3325,8 @@
       <c r="B34" s="6"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -3811,6 +3484,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:Q4"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="P22:Q23"/>
+    <mergeCell ref="B7:V9"/>
+    <mergeCell ref="T19:U20"/>
+    <mergeCell ref="T22:U23"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="L14:L21"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="T17:U17"/>
     <mergeCell ref="E32:F33"/>
     <mergeCell ref="X7:AH9"/>
     <mergeCell ref="AF15:AF22"/>
@@ -3827,16 +3510,6 @@
     <mergeCell ref="T28:U29"/>
     <mergeCell ref="E25:F26"/>
     <mergeCell ref="E19:F20"/>
-    <mergeCell ref="C2:Q4"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="P22:Q23"/>
-    <mergeCell ref="B7:V9"/>
-    <mergeCell ref="T19:U20"/>
-    <mergeCell ref="T22:U23"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="L14:L21"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="T17:U17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文案/數值系統GameValue_System.xlsx
+++ b/文案/數值系統GameValue_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CE8149-2F05-44EF-80C0-2C9C3EF0D681}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F74451-7C84-492B-9600-C62582F8577A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,18 +37,16 @@
           </rPr>
           <t>1.系統簡介
 玩家角色的戰鬥數值將由素質系統決定，系統內最主要以各項因素做為依據對角色數值進行增減，還能對技能產生額外效果。
-各項因素以點數作為計算，最大為50(裝備素質 + 技能熟練獎勵)，可以透過裝備、技能熟練、內隱記憶來增/減點數。
+各項因素以點數作為計算，最大為50
 2.數據算法
 因素點數 = 裝備素質 + 技能熟練獎勵
-實際數值 = 基本值 + 內隱記憶加成 * 因素點數
+實際數值 = 基本值 + 因素點數
 3.因素點數
 範例:
 --------------------
-體力 ▓▓▓▓▓(5 Pt)
-耐力 ▓▓▓▓(4 Pt)   
-魔素 ▓(1 Pt)       
-力量 ▓▓▓(3 Pt)
-反應 ▓(1 Pt)
+特技 ▓▓▓▓▓(5 Pt)
+殘酷▓▓▓▓(4 Pt)       
+魔素 ▓▓▓(3 Pt)
 --------------------</t>
         </r>
       </text>
@@ -476,7 +474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{31C29FE4-A4C3-46DA-8B52-D48647BE8491}">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{31C29FE4-A4C3-46DA-8B52-D48647BE8491}">
       <text>
         <r>
           <rPr>
@@ -667,121 +665,6 @@
 LV4 重甲精通 : 裝備重甲型防具時抵擋能力增加
 LV5 生存意志 : 當受到會致死的傷害時，生命會維持在1持續5秒。
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P25" authorId="0" shapeId="0" xr:uid="{906AACCE-4B2A-4DC4-B6DB-6AC58AD25B89}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>影響最大MP、MS的因素，魔素技能依賴的屬性。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T25" authorId="0" shapeId="0" xr:uid="{4D5FE4DA-BB28-411D-B51A-FB27BDEA1B92}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>特殊動作(技能)會消耗的值，不會自然回復，需要吸收場景中的魔素粒子才會回復。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P28" authorId="0" shapeId="0" xr:uid="{2DA110CB-A91E-467B-84EF-136124E5276C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>影響ATK的因素，攻擊技能依賴的屬性。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T28" authorId="0" shapeId="0" xr:uid="{B99A8AE8-DE00-4270-BEC0-A2E140604DA3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <i/>
-            <u/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>敵人共通</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>，決定攻擊傷害的基底值，所有傷害計算都以此為基底。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P31" authorId="0" shapeId="0" xr:uid="{AC8EB78E-0942-479E-BBF0-7B18137153F1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>影響Crit的因素。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T31" authorId="0" shapeId="0" xr:uid="{2723C3CF-EC66-4A9D-8A80-B73025C903C3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>攻擊時產生爆擊的機率，爆擊傷害預設為120%，</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <u/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="微軟正黑體"/>
-            <family val="2"/>
-            <charset val="136"/>
-          </rPr>
-          <t>並非所有動作都會造成爆擊</t>
         </r>
       </text>
     </comment>
@@ -797,22 +680,6 @@
   </si>
   <si>
     <t>魔素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔素/MP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻擊力/ATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆擊率/Crit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素質因素數值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -861,12 +728,28 @@
     <t>殘酷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>軍刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔素劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因素數值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -900,41 +783,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="81"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color indexed="81"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color indexed="81"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -1160,10 +1008,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1190,6 +1038,117 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1202,78 +1161,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1282,69 +1169,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1370,60 +1194,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="直線單箭頭接點 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1207EEB-C7E0-488F-95B6-586A032B5765}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3160059" y="3843618"/>
-          <a:ext cx="1871382" cy="1221441"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200">
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
@@ -1581,72 +1351,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>504264</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="箭號: 向右 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170BBC24-9BB9-48B8-9FE5-92BC95D50754}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9917205" y="3059206"/>
-          <a:ext cx="974912" cy="3361765"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 17224"/>
-            <a:gd name="adj2" fmla="val 47102"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-            <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -1658,7 +1362,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>247092</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>108138</xdr:rowOff>
+      <xdr:rowOff>96932</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1703,14 +1407,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1725,12 +1429,14 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3148853" y="5087471"/>
-          <a:ext cx="2980764" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="3126441" y="5076266"/>
+          <a:ext cx="3003176" cy="1456763"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="76200">
           <a:tailEnd type="triangle"/>
@@ -1764,7 +1470,7 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>489138</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>103655</xdr:rowOff>
+      <xdr:rowOff>114861</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1934,16 +1640,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>376519</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85165</xdr:rowOff>
+      <xdr:colOff>219636</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>186018</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1975,7 +1681,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="773207" y="4471147"/>
+          <a:off x="616324" y="6028765"/>
           <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1996,7 +1702,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>331693</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>29136</xdr:rowOff>
+      <xdr:rowOff>40342</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2096,6 +1802,311 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>11208</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="箭號: 向右 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA09D6FF-A9B1-49A0-B014-E72B5F933F3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9973235" y="4247031"/>
+          <a:ext cx="806824" cy="437030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>197223</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>197225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>398929</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>6726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="箭號: 向右 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF144C22-DCE8-4D2E-AEA5-3FEA09233059}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9979958" y="4870078"/>
+          <a:ext cx="806824" cy="437030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>203947</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>405653</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>24655</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="箭號: 向右 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B85BB16-8A98-48E5-A19C-A96D98970784}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9986682" y="5515537"/>
+          <a:ext cx="806824" cy="437030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A7098A-4D87-49E0-A907-AA7266862B61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10118911" y="3238500"/>
+          <a:ext cx="437029" cy="963705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>對應</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線單箭頭接點 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6615575-FE6E-4F0C-ACB3-72D40DDC6DF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3126441" y="3798794"/>
+          <a:ext cx="3003177" cy="1277471"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2366,9 +2377,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB40" sqref="AB40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2378,164 +2389,164 @@
   <sheetData>
     <row r="1" spans="1:34" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="52"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="55"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="58"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="27"/>
     </row>
     <row r="6" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
-        <v>14</v>
+      <c r="B7" s="28" t="s">
+        <v>10</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="60"/>
-      <c r="X7" s="23" t="s">
-        <v>6</v>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="30"/>
+      <c r="X7" s="28" t="s">
+        <v>2</v>
       </c>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="25"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="38"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="63"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="28"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="33"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="41"/>
     </row>
     <row r="9" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="63"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="33"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="44"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
@@ -2686,16 +2697,16 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="18"/>
-      <c r="L14" s="65" t="s">
-        <v>5</v>
+      <c r="L14" s="34" t="s">
+        <v>16</v>
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
       <c r="V14" s="11"/>
@@ -2723,37 +2734,37 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="66"/>
+      <c r="L15" s="35"/>
       <c r="M15" s="18"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
       <c r="V15" s="7"/>
-      <c r="X15" s="32" t="s">
-        <v>10</v>
+      <c r="X15" s="45" t="s">
+        <v>6</v>
       </c>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="35" t="s">
-        <v>11</v>
+      <c r="Z15" s="48" t="s">
+        <v>7</v>
       </c>
-      <c r="AA15" s="36"/>
+      <c r="AA15" s="49"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
-      <c r="AF15" s="32" t="s">
-        <v>7</v>
+      <c r="AF15" s="45" t="s">
+        <v>3</v>
       </c>
-      <c r="AG15" s="32" t="s">
-        <v>8</v>
+      <c r="AG15" s="45" t="s">
+        <v>4</v>
       </c>
-      <c r="AH15" s="32" t="s">
-        <v>9</v>
+      <c r="AH15" s="45" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2768,30 +2779,30 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="66"/>
+      <c r="L16" s="35"/>
       <c r="M16" s="18"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
       <c r="V16" s="12"/>
-      <c r="X16" s="33"/>
+      <c r="X16" s="46"/>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="38"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="51"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="33"/>
-    </row>
-    <row r="17" spans="1:34" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -2803,18 +2814,18 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="66"/>
+      <c r="L17" s="35"/>
       <c r="M17" s="18"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
       <c r="V17" s="12"/>
-      <c r="X17" s="33"/>
+      <c r="X17" s="46"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
@@ -2822,9 +2833,9 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="33"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
     </row>
     <row r="18" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
@@ -2838,18 +2849,18 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="18"/>
-      <c r="L18" s="66"/>
+      <c r="L18" s="35"/>
       <c r="M18" s="18"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
       <c r="V18" s="7"/>
-      <c r="X18" s="33"/>
+      <c r="X18" s="46"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
@@ -2857,36 +2868,36 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="33"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
     </row>
     <row r="19" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="19" t="s">
-        <v>12</v>
+      <c r="E19" s="56" t="s">
+        <v>8</v>
       </c>
-      <c r="F19" s="47"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="66"/>
+      <c r="L19" s="35"/>
       <c r="M19" s="18"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
       <c r="V19" s="12"/>
-      <c r="X19" s="33"/>
+      <c r="X19" s="46"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
@@ -2894,34 +2905,34 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="33"/>
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="46"/>
+      <c r="AH19" s="46"/>
     </row>
     <row r="20" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="18"/>
-      <c r="L20" s="66"/>
+      <c r="L20" s="35"/>
       <c r="M20" s="18"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
       <c r="V20" s="12"/>
-      <c r="X20" s="33"/>
+      <c r="X20" s="46"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
@@ -2929,9 +2940,9 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="33"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="46"/>
     </row>
     <row r="21" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
@@ -2945,18 +2956,18 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="18"/>
-      <c r="L21" s="67"/>
+      <c r="L21" s="36"/>
       <c r="M21" s="18"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
       <c r="V21" s="7"/>
-      <c r="X21" s="33"/>
+      <c r="X21" s="46"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
@@ -2964,9 +2975,9 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="33"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="46"/>
     </row>
     <row r="22" spans="1:34" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
@@ -2984,14 +2995,18 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
+      <c r="P22" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="53"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
+      <c r="T22" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="U22" s="53"/>
       <c r="V22" s="12"/>
-      <c r="X22" s="34"/>
+      <c r="X22" s="47"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
@@ -2999,11 +3014,11 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="34"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF22" s="47"/>
+      <c r="AG22" s="47"/>
+      <c r="AH22" s="47"/>
+    </row>
+    <row r="23" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
@@ -3019,12 +3034,12 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="55"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="55"/>
       <c r="V23" s="12"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="1"/>
@@ -3078,10 +3093,8 @@
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="20"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="1"/>
@@ -3091,16 +3104,16 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="39" t="s">
+      <c r="P25" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="U25" s="43"/>
+      <c r="U25" s="53"/>
       <c r="V25" s="12"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="1"/>
@@ -3119,8 +3132,8 @@
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="1"/>
@@ -3130,12 +3143,12 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="42"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="55"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="44"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="55"/>
       <c r="V26" s="12"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="9"/>
@@ -3189,16 +3202,16 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="39" t="s">
-        <v>16</v>
+      <c r="P28" s="52" t="s">
+        <v>1</v>
       </c>
-      <c r="Q28" s="40"/>
+      <c r="Q28" s="53"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="39" t="s">
-        <v>3</v>
+      <c r="T28" s="52" t="s">
+        <v>14</v>
       </c>
-      <c r="U28" s="40"/>
+      <c r="U28" s="53"/>
       <c r="V28" s="12"/>
     </row>
     <row r="29" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3217,15 +3230,15 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="42"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="55"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="42"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="55"/>
       <c r="V29" s="12"/>
     </row>
-    <row r="30" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -3240,15 +3253,15 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
       <c r="V30" s="7"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3263,24 +3276,22 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="U31" s="40"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
       <c r="V31" s="7"/>
     </row>
-    <row r="32" spans="1:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="70"/>
+      <c r="E32" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="57"/>
       <c r="G32" s="1"/>
       <c r="H32" s="18"/>
       <c r="I32" s="1"/>
@@ -3290,20 +3301,20 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="42"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
       <c r="V32" s="7"/>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="1"/>
@@ -3483,33 +3494,24 @@
       <c r="V40" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="C2:Q4"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="P22:Q23"/>
-    <mergeCell ref="B7:V9"/>
-    <mergeCell ref="T19:U20"/>
+  <mergeCells count="17">
     <mergeCell ref="T22:U23"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="L14:L21"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="E32:F33"/>
     <mergeCell ref="X7:AH9"/>
     <mergeCell ref="AF15:AF22"/>
     <mergeCell ref="AG15:AG22"/>
     <mergeCell ref="AH15:AH22"/>
     <mergeCell ref="X15:X22"/>
     <mergeCell ref="Z15:AA16"/>
+    <mergeCell ref="P22:Q23"/>
+    <mergeCell ref="P28:Q29"/>
     <mergeCell ref="P25:Q26"/>
-    <mergeCell ref="P31:Q32"/>
-    <mergeCell ref="P28:Q29"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="T31:U32"/>
     <mergeCell ref="T28:U29"/>
-    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="T25:U26"/>
+    <mergeCell ref="E32:F33"/>
     <mergeCell ref="E19:F20"/>
+    <mergeCell ref="C2:Q4"/>
+    <mergeCell ref="B7:V9"/>
+    <mergeCell ref="L14:L21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
